--- a/summary_questions.xlsx
+++ b/summary_questions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="217">
   <si>
     <t xml:space="preserve">Section</t>
   </si>
@@ -130,24 +130,24 @@
     <t xml:space="preserve">Purpose? Could be removed – way too many possibilities</t>
   </si>
   <si>
+    <t xml:space="preserve">rse1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you write code as part of your job?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y/N/NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To easily filter out those who do not write software</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">rse1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you write code as part of your job?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y/N/NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To easily filter out those who do not write software</t>
-  </si>
-  <si>
     <t xml:space="preserve">rse2</t>
   </si>
   <si>
@@ -184,15 +184,21 @@
     <t xml:space="preserve">Are you the person who "does computers" in your research group?</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">currentEmp1</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you work for</t>
+    <t xml:space="preserve"> For which type of organisation are you working for? </t>
   </si>
   <si>
     <t xml:space="preserve">Changed to include several options in one questions </t>
   </si>
   <si>
+    <t xml:space="preserve">check list</t>
+  </si>
+  <si>
     <t xml:space="preserve">currentEmp2</t>
   </si>
   <si>
@@ -205,9 +211,6 @@
     <t xml:space="preserve">Lost source but modified to include different London Univ</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Need to be adapted for each countries</t>
   </si>
   <si>
@@ -340,6 +343,12 @@
     <t xml:space="preserve">We don't glean much from this question</t>
   </si>
   <si>
+    <t xml:space="preserve">dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevEmp2</t>
+  </si>
+  <si>
     <t xml:space="preserve">How important were the following features to your decision to accept your current position?</t>
   </si>
   <si>
@@ -376,6 +385,9 @@
     <t xml:space="preserve">Split previous question into two to avoid double items</t>
   </si>
   <si>
+    <t xml:space="preserve">currentWork3</t>
+  </si>
+  <si>
     <t xml:space="preserve">What percentage of your time do you spend developing software each week?</t>
   </si>
   <si>
@@ -412,6 +424,9 @@
     <t xml:space="preserve">if no to paper3</t>
   </si>
   <si>
+    <t xml:space="preserve">TO REMOVE</t>
+  </si>
+  <si>
     <t xml:space="preserve">paper5</t>
   </si>
   <si>
@@ -629,6 +644,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.gov.uk/service-manual/user-centred-design/resources/patterns/gender-and-sex.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROPDOWN</t>
   </si>
   <si>
     <t xml:space="preserve">socio3</t>
@@ -870,6 +888,17 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -940,25 +969,23 @@
   </sheetPr>
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.14418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="13.8744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="58.6604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.89302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.9441860465116"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.9023255813954"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="61.8186046511628"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.7162790697674"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="70.8837209302326"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.69767441860465"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="14.906976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="63.2604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.0325581395349"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.5767441860465"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.2837209302326"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.1953488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="66.6279069767442"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.5441860465116"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="76.3813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="13.4651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,28 +1179,28 @@
     </row>
     <row r="7" s="11" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>41</v>
@@ -1206,16 +1233,30 @@
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
       <c r="C9" s="15"/>
       <c r="D9" s="10"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
     </row>
     <row r="10" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
       <c r="C10" s="15"/>
       <c r="D10" s="10"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
     </row>
     <row r="11" s="11" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>45</v>
@@ -1230,7 +1271,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>17</v>
@@ -1243,13 +1284,15 @@
       <c r="A12" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>11</v>
@@ -1265,13 +1308,15 @@
       <c r="A13" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -1290,13 +1335,15 @@
       <c r="A14" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>11</v>
@@ -1311,16 +1358,18 @@
       </c>
       <c r="K14" s="0"/>
     </row>
-    <row r="15" s="9" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>14</v>
@@ -1335,19 +1384,21 @@
         <v>17</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>14</v>
@@ -1356,31 +1407,33 @@
         <v>11</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C17" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>30</v>
@@ -1389,7 +1442,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>21</v>
@@ -1404,11 +1457,14 @@
       <c r="A18" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>30</v>
@@ -1417,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>15</v>
@@ -1426,19 +1482,21 @@
         <v>17</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="C19" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>30</v>
@@ -1457,11 +1515,14 @@
       <c r="A20" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C20" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>30</v>
@@ -1476,7 +1537,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,36 +1546,39 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>39</v>
-      </c>
       <c r="J21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>14</v>
@@ -1526,28 +1590,30 @@
         <v>15</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C23" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -1561,19 +1627,21 @@
         <v>17</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="0"/>
+      <c r="B24" s="0" t="s">
+        <v>53</v>
+      </c>
       <c r="C24" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>14</v>
@@ -1586,34 +1654,36 @@
         <v>15</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C25" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>21</v>
@@ -1628,10 +1698,10 @@
       </c>
       <c r="B26" s="16"/>
       <c r="D26" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>11</v>
@@ -1643,7 +1713,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,10 +1723,10 @@
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
       <c r="D27" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>11</v>
@@ -1670,18 +1740,21 @@
         <v>17</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
         <v>3</v>
       </c>
+      <c r="B28" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>14</v>
@@ -1690,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>17</v>
@@ -1700,9 +1773,11 @@
       <c r="A29" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="D29" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>14</v>
@@ -1711,29 +1786,31 @@
         <v>11</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>49</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>17</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B30" s="0"/>
+      <c r="B30" s="0" t="s">
+        <v>53</v>
+      </c>
       <c r="C30" s="0"/>
       <c r="D30" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>30</v>
@@ -1750,13 +1827,18 @@
         <v>17</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" s="11" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="14"/>
+      <c r="B31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="D31" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>14</v>
@@ -1765,63 +1847,68 @@
         <v>11</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" s="19" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="D32" s="18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>49</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J32" s="19" t="s">
         <v>17</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="true" ht="26.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="B33" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C33" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>15</v>
@@ -1830,7 +1917,7 @@
         <v>17</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" s="20" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,26 +1925,26 @@
         <v>4</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="20" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,13 +1959,13 @@
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>11</v>
@@ -1896,13 +1983,13 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>11</v>
@@ -1919,13 +2006,13 @@
         <v>4</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>11</v>
@@ -1934,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,19 +2030,19 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>15</v>
@@ -1963,7 +2050,7 @@
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,19 +2059,19 @@
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>15</v>
@@ -1992,28 +2079,30 @@
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B41" s="0"/>
+      <c r="B41" s="0" t="s">
+        <v>133</v>
+      </c>
       <c r="C41" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>15</v>
@@ -2021,7 +2110,7 @@
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
       <c r="K41" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,10 +2119,10 @@
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>14</v>
@@ -2052,13 +2141,13 @@
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>11</v>
@@ -2074,13 +2163,13 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>11</v>
@@ -2099,13 +2188,13 @@
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>11</v>
@@ -2124,13 +2213,13 @@
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>11</v>
@@ -2149,13 +2238,13 @@
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>11</v>
@@ -2174,13 +2263,13 @@
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>11</v>
@@ -2199,13 +2288,13 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>11</v>
@@ -2224,13 +2313,13 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>11</v>
@@ -2249,13 +2338,13 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>11</v>
@@ -2274,13 +2363,13 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>11</v>
@@ -2299,13 +2388,13 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>11</v>
@@ -2324,13 +2413,13 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>11</v>
@@ -2349,13 +2438,13 @@
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>11</v>
@@ -2374,13 +2463,13 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>11</v>
@@ -2399,13 +2488,13 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>11</v>
@@ -2424,13 +2513,13 @@
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>11</v>
@@ -2449,13 +2538,13 @@
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>11</v>
@@ -2474,13 +2563,13 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>11</v>
@@ -2499,13 +2588,13 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>11</v>
@@ -2524,13 +2613,13 @@
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>11</v>
@@ -2549,13 +2638,13 @@
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>11</v>
@@ -2574,13 +2663,13 @@
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>11</v>
@@ -2599,13 +2688,13 @@
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>11</v>
@@ -2624,13 +2713,13 @@
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>11</v>
@@ -2649,13 +2738,13 @@
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>11</v>
@@ -2674,13 +2763,13 @@
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>11</v>
@@ -2699,13 +2788,13 @@
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>11</v>
@@ -2724,13 +2813,13 @@
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>11</v>
@@ -2749,13 +2838,13 @@
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>11</v>
@@ -2774,13 +2863,13 @@
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>11</v>
@@ -2799,10 +2888,10 @@
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>14</v>
@@ -2824,10 +2913,10 @@
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>14</v>
@@ -2840,7 +2929,7 @@
         <v>21</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J74" s="6" t="s">
         <v>11</v>
@@ -2851,28 +2940,30 @@
       <c r="A75" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B75" s="14"/>
+      <c r="B75" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="C75" s="14" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E75" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>11</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,10 +2972,10 @@
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>14</v>
@@ -2908,10 +2999,10 @@
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>14</v>
@@ -2935,13 +3026,13 @@
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>11</v>
@@ -2955,13 +3046,8 @@
       <c r="K78" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C35:C78,C2:C33">
+  <conditionalFormatting sqref="C34">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$H2=same</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$H34=same</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2990,9 +3076,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.0837209302326"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/summary_questions.xlsx
+++ b/summary_questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="UK pilot" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="UK pilot - 2016" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Core Version - 2017" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="231">
   <si>
     <t xml:space="preserve">Section</t>
   </si>
@@ -373,6 +373,33 @@
     <t xml:space="preserve">Do you provide help and expertise in software development to researchers from across your organisation?</t>
   </si>
   <si>
+    <t xml:space="preserve">currentWORKCANADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If no, is there such a group within your organization?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if no to currentWork1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentWorkCan1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If no, do you think such a group would have value?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if no to currentWorkCAN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentWorkCan2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, would you be interested in participating in such a group?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if no to currentWorkCAN2</t>
+  </si>
+  <si>
     <t xml:space="preserve">currentWork2</t>
   </si>
   <si>
@@ -434,6 +461,21 @@
   </si>
   <si>
     <t xml:space="preserve">if no to paper4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever presented your software work at a conference or workshop? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, which conference(s)/workshop(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if yes to con1</t>
   </si>
   <si>
     <t xml:space="preserve">stability1</t>
@@ -786,7 +828,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -867,6 +909,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -877,6 +927,26 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -896,7 +966,6 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -967,25 +1036,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.69767441860465"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="14.906976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="63.2604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.0325581395349"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.5767441860465"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.2837209302326"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.1953488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="66.6279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.5441860465116"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="76.3813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="13.4651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.24651162790698"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="16.0697674418605"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="68.2"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.2697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.4046511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.753488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.5767441860465"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="71.7767441860465"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="82.353488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="14.4976744186047"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,25 +1301,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="0"/>
       <c r="C9" s="15"/>
       <c r="D9" s="10"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
       <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
     </row>
-    <row r="10" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="0"/>
       <c r="C10" s="15"/>
       <c r="D10" s="10"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
       <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
     </row>
@@ -1920,7 +1993,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" s="20" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="20" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="n">
         <v>4</v>
       </c>
@@ -1939,161 +2012,131 @@
       <c r="H34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="20" t="s">
+    </row>
+    <row r="35" s="20" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="20" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+      <c r="D35" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" s="20" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" s="22" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="C37" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" s="4" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="24"/>
+      <c r="J37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
-      <c r="K39" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B40" s="0"/>
-      <c r="C40" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
-      <c r="K40" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" s="4" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>37</v>
@@ -2101,150 +2144,157 @@
       <c r="F41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="H41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
       <c r="K41" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="E42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
+      <c r="H42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="0"/>
+      <c r="C43" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
+      <c r="F43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="H43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="C44" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6" t="s">
-        <v>21</v>
+      <c r="D44" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
+      <c r="K44" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" s="25" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D45" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" s="25" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>143</v>
+        <v>152</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>11</v>
@@ -2253,23 +2303,20 @@
       <c r="H47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>143</v>
+        <v>154</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>11</v>
@@ -2278,9 +2325,6 @@
       <c r="H48" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="0"/>
-      <c r="J48" s="0"/>
-      <c r="K48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -2288,13 +2332,13 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>11</v>
@@ -2313,13 +2357,13 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>11</v>
@@ -2338,13 +2382,13 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>11</v>
@@ -2357,19 +2401,19 @@
       <c r="J51" s="0"/>
       <c r="K51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>11</v>
@@ -2382,19 +2426,19 @@
       <c r="J52" s="0"/>
       <c r="K52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>11</v>
@@ -2413,13 +2457,13 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>11</v>
@@ -2432,19 +2476,19 @@
       <c r="J54" s="0"/>
       <c r="K54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>11</v>
@@ -2463,13 +2507,13 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>11</v>
@@ -2482,19 +2526,19 @@
       <c r="J56" s="0"/>
       <c r="K56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>11</v>
@@ -2507,19 +2551,19 @@
       <c r="J57" s="0"/>
       <c r="K57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>11</v>
@@ -2538,13 +2582,13 @@
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>11</v>
@@ -2557,19 +2601,19 @@
       <c r="J59" s="0"/>
       <c r="K59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>11</v>
@@ -2588,13 +2632,13 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>11</v>
@@ -2613,13 +2657,13 @@
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>11</v>
@@ -2632,19 +2676,19 @@
       <c r="J62" s="0"/>
       <c r="K62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="26.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>11</v>
@@ -2657,19 +2701,19 @@
       <c r="J63" s="0"/>
       <c r="K63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>11</v>
@@ -2688,13 +2732,13 @@
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>11</v>
@@ -2707,19 +2751,19 @@
       <c r="J65" s="0"/>
       <c r="K65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>11</v>
@@ -2732,19 +2776,19 @@
       <c r="J66" s="0"/>
       <c r="K66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>11</v>
@@ -2757,19 +2801,19 @@
       <c r="J67" s="0"/>
       <c r="K67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="26.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>11</v>
@@ -2788,13 +2832,13 @@
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>11</v>
@@ -2809,17 +2853,17 @@
     </row>
     <row r="70" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>11</v>
@@ -2832,19 +2876,19 @@
       <c r="J70" s="0"/>
       <c r="K70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="39.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>197</v>
+        <v>202</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>11</v>
@@ -2857,19 +2901,19 @@
       <c r="J71" s="0"/>
       <c r="K71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>197</v>
+        <v>204</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>11</v>
@@ -2884,17 +2928,17 @@
     </row>
     <row r="73" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>14</v>
+        <v>206</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>11</v>
@@ -2909,17 +2953,17 @@
     </row>
     <row r="74" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>14</v>
+        <v>208</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>11</v>
@@ -2928,45 +2972,36 @@
       <c r="H74" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I74" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="I74" s="0"/>
+      <c r="J74" s="0"/>
       <c r="K74" s="0"/>
     </row>
-    <row r="75" s="11" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="n">
+    <row r="75" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D75" s="13" t="s">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I75" s="14" t="s">
+      <c r="D75" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J75" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="14" t="s">
+      <c r="E75" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="76" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="0"/>
+      <c r="J75" s="0"/>
+      <c r="K75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="39.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>6</v>
       </c>
@@ -2978,7 +3013,7 @@
         <v>213</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>11</v>
@@ -2987,25 +3022,23 @@
       <c r="H76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="6"/>
-    </row>
-    <row r="77" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I76" s="0"/>
+      <c r="J76" s="0"/>
+      <c r="K76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>6</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>11</v>
@@ -3014,25 +3047,23 @@
       <c r="H77" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="6"/>
-    </row>
-    <row r="78" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>6</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>11</v>
@@ -3041,18 +3072,156 @@
       <c r="H78" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
+      <c r="I78" s="0"/>
+      <c r="J78" s="0"/>
+      <c r="K78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="0"/>
+    </row>
+    <row r="80" s="11" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C37">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$H34=same</formula>
+      <formula>$H37=same</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I75" r:id="rId1" display="https://www.academia.edu/1112558/Comparative_study_on_the_collection_of_data_to_measure_the_extent_and_impact_of_discrimination_within_the_United_States_Canada_Australia_the_United_Kingdom_and_the_Netherlands"/>
+    <hyperlink ref="I80" r:id="rId1" display="https://www.academia.edu/1112558/Comparative_study_on_the_collection_of_data_to_measure_the_extent_and_impact_of_discrimination_within_the_United_States_Canada_Australia_the_United_Kingdom_and_the_Netherlands"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
@@ -3069,14 +3238,1646 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="1:73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="6.70232558139535"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="14.1674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="14.9953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="25" width="54.0558139534884"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="25" width="15.6883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="25" width="8.93488372093023"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="25" width="28.9627906976744"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="25" width="20.8697674418605"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="25" width="23.9813953488372"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="25" width="8.93488372093023"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="24" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AMJ24" s="0"/>
+    </row>
+    <row r="25" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="26" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="27" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AMJ27" s="0"/>
+    </row>
+    <row r="28" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="AMJ28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>#REF!=same</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H70" r:id="rId1" display="https://www.academia.edu/1112558/Comparative_study_on_the_collection_of_data_to_measure_the_extent_and_impact_of_discrimination_within_the_United_States_Canada_Australia_the_United_Kingdom_and_the_Netherlands"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/summary_questions.xlsx
+++ b/summary_questions.xlsx
@@ -9,7 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="UK pilot - 2016" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Core Version - 2017" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Canada -- First draft" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Core Version - 2017" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,8 +21,60 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Scott Henwood:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Hard to draw any conclusions in an anonymous survey</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D74" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Scott Henwood: 
+This is an SSI question. Kathryn had some concerns about its clarity, but I asked some of the technical people in the office and they were all comfortable with it.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="323">
   <si>
     <t xml:space="preserve">Section</t>
   </si>
@@ -716,6 +769,282 @@
   </si>
   <si>
     <t xml:space="preserve">Are you a member of the UK RSE Association? (Members are people who have signed up to the UK RSE mailing list)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSI Ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMF Ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why am I asking this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What percentage of your time is spent on research?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What percentage of the time you spend writing software is spent on new development/enhancement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What percentage of the time you spend writing software is devoted to maintenance and support activities?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many years of software development experience do you have?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you consider yourself a professional software developer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many software projects are you currently involved in?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many software developers typically work on your projects?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just me, 2, 3-5, 6-9, 10+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What percentage of these developers are dedicated to the project full time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How are your projects typically tested (check all that apply)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No formal testing, the developers do their own testing, dedicated test engineers, user testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do your research software projects typically include a project manager?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What development methodology does your current project use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterfall, Scrum, Kanban, other, no formal methodology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;list&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What percentage of the software projects you've worked on are released under an open source license?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List any open repositories (eg. GitHub) to which your software projects have been published.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What percentage of the software projects you've worked on have an associated Digital Object Identifier (DOI)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What programming languages do you use in developing research software? Please list in order, beginning with most frequently used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What platform(s) are your research software projects deployed on (check all that apply)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute Canada HPC, University compute centre, Other HPC, Cloud, Stand-alone server(s), Laptop/desktop, Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do any of your current projects make use of a data management or data archiving component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, is it part of your software or an external system (please specify)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check boxes with text field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do any of your current projects accommodate the open/public sharing of data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, is the creation of a Digital Object Identifier (DOI) and metadata for individual assets supported?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would you be interested in joining such an organization if one was formed in Canada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What would you hope to get out of such an organization (check all that apply)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Networking, software collaborations, research collaborations, training, research software standards and interoperability definition, job opportunities, other(specify)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is your current research software work funded?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employer, CANARIE, CFI, CIHR, Genome Canada, NSERC, SSHRC, Don't know, Other (specify)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who else should be aware of this survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you developed software that is accessed from multiple institutions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do any of your current or previous projects make use of the Canadian Access Federation (CAF) Federated Identity Management (FIM) service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List any public identity providers (Google, Facebook, Live, LinkedIn, Twitter etc.) used in your current or previous projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drives PI-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever visited the research software registry at science.canarie.ca?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blatent marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many software components from science.canarie.ca have you integrated into your projects?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">socio 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you work in Canada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify target audience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rse 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you write software for research as part of your job?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edu 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the highest level of education you have attained?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High School, Some College, College Diploma, Some University, Bachelors Degree, Masters Degree, Doctorate, Other, None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand the background of research software developers to understand training needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edu 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In which discipline is your highest academic qualification?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSERC Codes + Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edu 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List any professional qualifications you hold (eg. P. Eng, PMP, …)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rse 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What percentage of your time is spent developing software?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand research software development practices to see what efficiencies from commercial software development we can encourage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What type of organization do you work for?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University, college, non-profit, charity, government department, private sector, other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand if we need to expand community beyond universities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your current job title?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine how we might be able to identify members of this community so we can communicate with them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In which application area do you primarily work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSERC Codes + Multi-discipline + Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine with experience questions to identify disciplines that could benefit from professional software developers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the nature of your current employment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-time, part-time, co-op/intern, grad student, post doc, contract, consultant, self-employed, other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaks to the efficiency of software development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you work within a group that provides software development help or expertise to researchers from across your organization?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow up on feedback from outreach suggesting that such a group is a good idea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you contributed software to research that has been published in a journal or presented at a conference?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand how software is seen by the research community in Canada. This is useful for comparison to other countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your opinion, what are the three most important skills that a Research Software Developer must possess? These skills can be technical and non-technical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify areas for presentation at future workshops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What three skills would you like to acquire or improve to help your work as a Research Software Developer? These skills can be technical and non-technical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the three tools or services you use most often in your software work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding the skillset and where the CANARIE team might be able to add value. Also understand what servcices might have greatest impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your Operating System of choice for deployment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNU/Linux, Mac OS, Windows, iOS, Android, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you a member of an association of Research Software Developers (UK RSE, for example)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine if there is there a benefit to us supporting the creation of such an organization</t>
   </si>
 </sst>
 </file>
@@ -725,7 +1054,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -752,6 +1081,50 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFED7D31"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -784,7 +1157,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFED7D31"/>
       </patternFill>
     </fill>
     <fill>
@@ -828,7 +1201,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -933,6 +1306,54 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1010,12 +1431,12 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33FF99"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1039,7 +1460,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3238,10 +3659,877 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K77"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.646511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="26" width="17.646511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="13.8093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="119.493023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="85.5767441860465"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="14.2186046511628"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.2186046511628"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="29" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
+      <c r="F5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="F8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="F12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="0"/>
+    </row>
+    <row r="23" s="32" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" s="34" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F27" s="0"/>
+    </row>
+    <row r="28" s="34" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" s="34" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" s="34" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" s="34" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D40" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="35"/>
+      <c r="F42" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0"/>
+      <c r="C44" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0"/>
+      <c r="C45" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="37"/>
+      <c r="B52" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="37"/>
+      <c r="B53" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+    </row>
+    <row r="55" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="37"/>
+      <c r="B55" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="37"/>
+      <c r="B56" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C56" s="37"/>
+      <c r="D56" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="37"/>
+      <c r="B57" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+    </row>
+    <row r="59" customFormat="false" ht="127.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="37"/>
+      <c r="B59" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="37"/>
+      <c r="D59" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="0"/>
+      <c r="D60" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="0"/>
+      <c r="D61" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="0"/>
+      <c r="D62" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="0"/>
+      <c r="D65" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="0"/>
+      <c r="D66" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="0"/>
+      <c r="D67" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="0"/>
+      <c r="D68" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="0"/>
+      <c r="D69" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="0"/>
+      <c r="D70" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="0"/>
+      <c r="D71" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="0"/>
+      <c r="D72" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="F75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+      <c r="D76" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="1:73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3265,19 +4553,19 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="20" t="s">
@@ -3297,19 +4585,19 @@
       <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="26"/>
+      <c r="F2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="38"/>
       <c r="H2" s="20" t="s">
         <v>16</v>
       </c>
@@ -3328,10 +4616,10 @@
       <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="20" t="s">
@@ -3357,7 +4645,7 @@
       <c r="C4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="40" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="20" t="s">
@@ -3387,10 +4675,10 @@
       <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -3410,10 +4698,10 @@
       <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="40" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -3433,10 +4721,10 @@
       <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="40" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="20" t="s">
@@ -3459,10 +4747,10 @@
       <c r="B8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="40" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -3483,10 +4771,10 @@
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="40" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -3512,7 +4800,7 @@
       <c r="C10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="40" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="20" t="s">
@@ -3570,7 +4858,7 @@
       <c r="C12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="20" t="s">
@@ -3596,7 +4884,7 @@
       <c r="C13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="40" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -3626,7 +4914,7 @@
       <c r="C14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="40" t="s">
         <v>71</v>
       </c>
       <c r="E14" s="20" t="s">
@@ -3649,7 +4937,7 @@
       <c r="C15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="40" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -3674,7 +4962,7 @@
       <c r="C16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="40" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="20" t="s">
@@ -3700,7 +4988,7 @@
       <c r="C17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="40" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="20" t="s">
@@ -3730,7 +5018,7 @@
       <c r="C18" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="40" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -3757,7 +5045,7 @@
       <c r="C19" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="40" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="20" t="s">
@@ -3786,7 +5074,7 @@
       <c r="C20" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="40" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="20" t="s">
@@ -3835,7 +5123,7 @@
       <c r="C22" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="40" t="s">
         <v>108</v>
       </c>
       <c r="E22" s="25" t="s">
@@ -3864,7 +5152,7 @@
       <c r="C23" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="40" t="s">
         <v>115</v>
       </c>
       <c r="E23" s="20" t="s">
@@ -3888,7 +5176,7 @@
       <c r="C24" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="41" t="s">
         <v>117</v>
       </c>
       <c r="E24" s="20" t="s">
@@ -3906,7 +5194,7 @@
       <c r="C25" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="41" t="s">
         <v>120</v>
       </c>
       <c r="E25" s="20" t="s">
@@ -3924,7 +5212,7 @@
       <c r="C26" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="41" t="s">
         <v>123</v>
       </c>
       <c r="E26" s="20" t="s">
@@ -3942,7 +5230,7 @@
       <c r="C27" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="40" t="s">
         <v>126</v>
       </c>
       <c r="E27" s="20" t="s">
@@ -3964,7 +5252,7 @@
       <c r="A28" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="D28" s="28"/>
+      <c r="D28" s="40"/>
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3975,7 +5263,7 @@
       <c r="C29" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="40" t="s">
         <v>130</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -3996,7 +5284,7 @@
       <c r="C30" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="40" t="s">
         <v>132</v>
       </c>
       <c r="E30" s="20" t="s">
@@ -4016,7 +5304,7 @@
       <c r="C31" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="40" t="s">
         <v>134</v>
       </c>
       <c r="E31" s="20" t="s">
@@ -4038,7 +5326,7 @@
       <c r="C32" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="40" t="s">
         <v>137</v>
       </c>
       <c r="E32" s="20" t="s">
@@ -4061,7 +5349,7 @@
       <c r="C33" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="40" t="s">
         <v>140</v>
       </c>
       <c r="E33" s="20" t="s">
@@ -4087,7 +5375,7 @@
       <c r="C34" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="40" t="s">
         <v>144</v>
       </c>
       <c r="E34" s="20" t="s">
@@ -4110,7 +5398,7 @@
       <c r="C35" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="41" t="s">
         <v>147</v>
       </c>
       <c r="E35" s="20" t="s">
@@ -4127,7 +5415,7 @@
       <c r="C36" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="41" t="s">
         <v>149</v>
       </c>
       <c r="E36" s="20" t="s">
@@ -4147,7 +5435,7 @@
       <c r="C37" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="40" t="s">
         <v>152</v>
       </c>
       <c r="E37" s="20" t="s">
@@ -4166,7 +5454,7 @@
       <c r="C38" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="40" t="s">
         <v>154</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -4185,7 +5473,7 @@
       <c r="C39" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="40" t="s">
         <v>156</v>
       </c>
       <c r="E39" s="25" t="s">
@@ -4204,7 +5492,7 @@
       <c r="C40" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="40" t="s">
         <v>159</v>
       </c>
       <c r="E40" s="25" t="s">
@@ -4223,7 +5511,7 @@
       <c r="C41" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="40" t="s">
         <v>161</v>
       </c>
       <c r="E41" s="25" t="s">
@@ -4242,7 +5530,7 @@
       <c r="C42" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="40" t="s">
         <v>163</v>
       </c>
       <c r="E42" s="25" t="s">
@@ -4261,7 +5549,7 @@
       <c r="C43" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="40" t="s">
         <v>165</v>
       </c>
       <c r="E43" s="25" t="s">
@@ -4280,7 +5568,7 @@
       <c r="C44" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="40" t="s">
         <v>167</v>
       </c>
       <c r="E44" s="25" t="s">
@@ -4299,7 +5587,7 @@
       <c r="C45" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="40" t="s">
         <v>169</v>
       </c>
       <c r="E45" s="25" t="s">
@@ -4318,7 +5606,7 @@
       <c r="C46" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="40" t="s">
         <v>171</v>
       </c>
       <c r="E46" s="25" t="s">
@@ -4337,7 +5625,7 @@
       <c r="C47" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="40" t="s">
         <v>173</v>
       </c>
       <c r="E47" s="25" t="s">
@@ -4356,7 +5644,7 @@
       <c r="C48" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="40" t="s">
         <v>175</v>
       </c>
       <c r="E48" s="25" t="s">
@@ -4375,7 +5663,7 @@
       <c r="C49" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="40" t="s">
         <v>177</v>
       </c>
       <c r="E49" s="25" t="s">
@@ -4394,7 +5682,7 @@
       <c r="C50" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="40" t="s">
         <v>179</v>
       </c>
       <c r="E50" s="25" t="s">
@@ -4413,7 +5701,7 @@
       <c r="C51" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="40" t="s">
         <v>182</v>
       </c>
       <c r="E51" s="25" t="s">
@@ -4432,7 +5720,7 @@
       <c r="C52" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="40" t="s">
         <v>184</v>
       </c>
       <c r="E52" s="25" t="s">
@@ -4451,7 +5739,7 @@
       <c r="C53" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="40" t="s">
         <v>186</v>
       </c>
       <c r="E53" s="25" t="s">
@@ -4470,7 +5758,7 @@
       <c r="C54" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="40" t="s">
         <v>188</v>
       </c>
       <c r="E54" s="25" t="s">
@@ -4489,7 +5777,7 @@
       <c r="C55" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="40" t="s">
         <v>190</v>
       </c>
       <c r="E55" s="25" t="s">
@@ -4508,7 +5796,7 @@
       <c r="C56" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="40" t="s">
         <v>192</v>
       </c>
       <c r="E56" s="25" t="s">
@@ -4527,7 +5815,7 @@
       <c r="C57" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="40" t="s">
         <v>194</v>
       </c>
       <c r="E57" s="25" t="s">
@@ -4546,7 +5834,7 @@
       <c r="C58" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="40" t="s">
         <v>196</v>
       </c>
       <c r="E58" s="25" t="s">
@@ -4565,7 +5853,7 @@
       <c r="C59" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="40" t="s">
         <v>198</v>
       </c>
       <c r="E59" s="25" t="s">
@@ -4584,7 +5872,7 @@
       <c r="C60" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="40" t="s">
         <v>200</v>
       </c>
       <c r="E60" s="25" t="s">
@@ -4603,7 +5891,7 @@
       <c r="C61" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="40" t="s">
         <v>202</v>
       </c>
       <c r="E61" s="25" t="s">
@@ -4622,7 +5910,7 @@
       <c r="C62" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="40" t="s">
         <v>204</v>
       </c>
       <c r="E62" s="25" t="s">
@@ -4641,7 +5929,7 @@
       <c r="C63" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="40" t="s">
         <v>206</v>
       </c>
       <c r="E63" s="25" t="s">
@@ -4660,7 +5948,7 @@
       <c r="C64" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="40" t="s">
         <v>208</v>
       </c>
       <c r="E64" s="25" t="s">
@@ -4679,7 +5967,7 @@
       <c r="C65" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="40" t="s">
         <v>210</v>
       </c>
       <c r="E65" s="20" t="s">
@@ -4698,7 +5986,7 @@
       <c r="C66" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="40" t="s">
         <v>213</v>
       </c>
       <c r="E66" s="20" t="s">
@@ -4717,7 +6005,7 @@
       <c r="C67" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="40" t="s">
         <v>215</v>
       </c>
       <c r="E67" s="20" t="s">
@@ -4736,7 +6024,7 @@
       <c r="C68" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="40" t="s">
         <v>217</v>
       </c>
       <c r="E68" s="20" t="s">
@@ -4755,7 +6043,7 @@
       <c r="C69" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="40" t="s">
         <v>219</v>
       </c>
       <c r="E69" s="20" t="s">
@@ -4782,7 +6070,7 @@
       <c r="C70" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="40" t="s">
         <v>223</v>
       </c>
       <c r="E70" s="20" t="s">
@@ -4807,7 +6095,7 @@
       <c r="C71" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="40" t="s">
         <v>227</v>
       </c>
       <c r="E71" s="20" t="s">
@@ -4831,7 +6119,7 @@
       <c r="C72" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="40" t="s">
         <v>228</v>
       </c>
       <c r="E72" s="20" t="s">
@@ -4855,7 +6143,7 @@
       <c r="C73" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="40" t="s">
         <v>230</v>
       </c>
       <c r="E73" s="20" t="s">

--- a/summary_questions.xlsx
+++ b/summary_questions.xlsx
@@ -1,19 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="2180" yWindow="4120" windowWidth="35920" windowHeight="24280" tabRatio="996" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="UK pilot - 2016" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Canada -- First draft" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Core Version - 2017" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="UK pilot - 2016" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Canada -- First draft" sheetId="2" r:id="rId3"/>
+    <sheet name="Core Version - 2017" sheetId="3" r:id="rId4"/>
+    <sheet name="Changes to survey" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -21,8 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -31,7 +43,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
@@ -49,7 +61,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Hard to draw any conclusions in an anonymous survey</t>
+          <t>Hard to draw any conclusions in an anonymous survey</t>
         </r>
       </text>
     </comment>
@@ -57,14 +69,14 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Scott Henwood: 
+          <t>Scott Henwood: 
 This is an SSI question. Kathryn had some concerns about its clarity, but I asked some of the technical people in the office and they were all comfortable with it.</t>
         </r>
       </text>
@@ -74,66 +86,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="323">
-  <si>
-    <t xml:space="preserve">Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done in Lime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diff from original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change for each country?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socio1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In which country do you work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop down list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/datasets/country-list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changed the source of information, and the question from "live" to "work"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edu1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="337">
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Done in Lime</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>Diff from original</t>
+  </si>
+  <si>
+    <t>Source of information</t>
+  </si>
+  <si>
+    <t>Change for each country?</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>socio1</t>
+  </si>
+  <si>
+    <t>In which country do you work?</t>
+  </si>
+  <si>
+    <t>Drop down list</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>https://github.com/datasets/country-list</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Changed the source of information, and the question from "live" to "work"</t>
+  </si>
+  <si>
+    <t>edu1</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -141,106 +153,106 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need to be adapted to different levels for different countries – See education_levels_uk.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edu2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In which subject is your highest academic qualification?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.thecompleteuniversityguide.co.uk/courses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relatively generic. Seems applicable everywhere. Reworded the question for clarity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edu3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter your academic subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREETEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if other at the previous one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edu4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you hold any professional qualifications? If yes, please enter them separated by commas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose? Could be removed – way too many possibilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rse1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you write code as part of your job?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y/N/NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To easily filter out those who do not write software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rse2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you divide your time at work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert (RSE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changed from yes/no to Likert scale question with even number of responses. (Mostly conducting to Mostly developing software)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rse3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who uses the code that you write?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scale from Mostly myself to Mostly other people. To identify whether they're just using their own code, or writing for other people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you spend more time developing software than conducting research?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you employed as a postdoctoral researcher?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preconception of the role and too limitating. We can still extract the info from job title.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you the person who "does computers" in your research group?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentEmp1</t>
+    <t>same</t>
+  </si>
+  <si>
+    <t>Need to be adapted to different levels for different countries – See education_levels_uk.txt</t>
+  </si>
+  <si>
+    <t>edu2</t>
+  </si>
+  <si>
+    <t>In which subject is your highest academic qualification?</t>
+  </si>
+  <si>
+    <t>if qualification</t>
+  </si>
+  <si>
+    <t>http://www.thecompleteuniversityguide.co.uk/courses</t>
+  </si>
+  <si>
+    <t>Relatively generic. Seems applicable everywhere. Reworded the question for clarity.</t>
+  </si>
+  <si>
+    <t>edu3</t>
+  </si>
+  <si>
+    <t>Enter your academic subject</t>
+  </si>
+  <si>
+    <t>FREETEXT</t>
+  </si>
+  <si>
+    <t>if other at the previous one</t>
+  </si>
+  <si>
+    <t>edu4</t>
+  </si>
+  <si>
+    <t>Do you hold any professional qualifications? If yes, please enter them separated by commas.</t>
+  </si>
+  <si>
+    <t>Purpose? Could be removed – way too many possibilities</t>
+  </si>
+  <si>
+    <t>rse1</t>
+  </si>
+  <si>
+    <t>Do you write code as part of your job?</t>
+  </si>
+  <si>
+    <t>Y/N/NA</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>To easily filter out those who do not write software</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>rse2</t>
+  </si>
+  <si>
+    <t>How do you divide your time at work?</t>
+  </si>
+  <si>
+    <t>Likert (RSE)</t>
+  </si>
+  <si>
+    <t>Changed from yes/no to Likert scale question with even number of responses. (Mostly conducting to Mostly developing software)</t>
+  </si>
+  <si>
+    <t>rse3</t>
+  </si>
+  <si>
+    <t>Who uses the code that you write?</t>
+  </si>
+  <si>
+    <t>Scale from Mostly myself to Mostly other people. To identify whether they're just using their own code, or writing for other people</t>
+  </si>
+  <si>
+    <t>Do you spend more time developing software than conducting research?</t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t>Are you employed as a postdoctoral researcher?</t>
+  </si>
+  <si>
+    <t>Preconception of the role and too limitating. We can still extract the info from job title.</t>
+  </si>
+  <si>
+    <t>Are you the person who "does computers" in your research group?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>currentEmp1</t>
   </si>
   <si>
     <t xml:space="preserve"> For which type of organisation are you working for? </t>
@@ -249,812 +261,851 @@
     <t xml:space="preserve">Changed to include several options in one questions </t>
   </si>
   <si>
-    <t xml:space="preserve">check list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentEmp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In which University?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If ‘University’ at currentEmp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost source but modified to include different London Univ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need to be adapted for each countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentEmp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter which university</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If others at currentEmp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentEmp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which organisation do you work for?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If NOT ‘University’ at currentEmp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updated English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentEmp5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is your official job title?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentEmp6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you known in your group by a different job title? If so, please enter the job title you use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reworded to avoid one preliminary question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentEMp7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you primarily work across multiple disciplines?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows us to check whether they see themselves as a multi-disciplinary person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentEmp8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In which academic subject do you primarily work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same source as for academic field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May add a “Other field” with a conditional for a FREETEXT. Updated to limit them to provide the subject in which they primarily work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentEmp9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When did you start your current contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the type of answer from FREETEXT to datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentEmp10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What type of contract are you employed on?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost source but modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added ‘Other/Not listed’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentEmp11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the duration of your current contract?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREENUMERIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if “fixed term” in currentEmp7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is this your first job?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removed to create the prevEmp1 to reword and include academia in the possible answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you previously worked in the private sector?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get merge into prevEmp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prevEmp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What was your previous job?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why did you leave the private sector?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes to prevEmp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">several website see reference in collaboration.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asked if it was at uni or in private sector rather than just in private sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What was the official job title of your previous job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We don't glean much from this question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prevEmp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How important were the following features to your decision to accept your current position?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSE interviews, review main features that people liked in their job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Want to get more info on what parts of the job attracted people to the position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What was the type of your contract?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes to prevEmp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same items as for currentEmp9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentWork1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you provide help and expertise in software development to researchers from across your organisation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentWORKCANADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If no, is there such a group within your organization?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if no to currentWork1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentWorkCan1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If no, do you think such a group would have value?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if no to currentWorkCAN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentWorkCan2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes, would you be interested in participating in such a group?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if no to currentWorkCAN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentWork2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you working in a larger group/organisation to provide this help/expertise?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if yes to currentWork1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split previous question into two to avoid double items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currentWork3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What percentage of your time do you spend developing software each week?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has your software contributed to research that has been published in a journal or at a conference?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In general, when your software contributes to a paper, are you acknowledged in that paper?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changed phrasing to be more general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you generally named as the main author of the paper?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if yes to paper2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you generally named as a co-author of the paper?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if no to paper3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO REMOVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you generally acknowledged in the main paper?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if no to paper4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conf1</t>
+    <t>check list</t>
+  </si>
+  <si>
+    <t>currentEmp2</t>
+  </si>
+  <si>
+    <t>In which University?</t>
+  </si>
+  <si>
+    <t>If ‘University’ at currentEmp1</t>
+  </si>
+  <si>
+    <t>Lost source but modified to include different London Univ</t>
+  </si>
+  <si>
+    <t>Need to be adapted for each countries</t>
+  </si>
+  <si>
+    <t>currentEmp3</t>
+  </si>
+  <si>
+    <t>Enter which university</t>
+  </si>
+  <si>
+    <t>If others at currentEmp2</t>
+  </si>
+  <si>
+    <t>currentEmp4</t>
+  </si>
+  <si>
+    <t>Which organisation do you work for?</t>
+  </si>
+  <si>
+    <t>If NOT ‘University’ at currentEmp1</t>
+  </si>
+  <si>
+    <t>Updated English</t>
+  </si>
+  <si>
+    <t>currentEmp5</t>
+  </si>
+  <si>
+    <t>What is your official job title?</t>
+  </si>
+  <si>
+    <t>currentEmp6</t>
+  </si>
+  <si>
+    <t>Are you known in your group by a different job title? If so, please enter the job title you use</t>
+  </si>
+  <si>
+    <t>Reworded to avoid one preliminary question</t>
+  </si>
+  <si>
+    <t>currentEMp7</t>
+  </si>
+  <si>
+    <t>Do you primarily work across multiple disciplines?</t>
+  </si>
+  <si>
+    <t>Allows us to check whether they see themselves as a multi-disciplinary person</t>
+  </si>
+  <si>
+    <t>currentEmp8</t>
+  </si>
+  <si>
+    <t>In which academic subject do you primarily work?</t>
+  </si>
+  <si>
+    <t>Same source as for academic field</t>
+  </si>
+  <si>
+    <t>May add a “Other field” with a conditional for a FREETEXT. Updated to limit them to provide the subject in which they primarily work</t>
+  </si>
+  <si>
+    <t>currentEmp9</t>
+  </si>
+  <si>
+    <t>When did you start your current contract</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>Change the type of answer from FREETEXT to datetime</t>
+  </si>
+  <si>
+    <t>currentEmp10</t>
+  </si>
+  <si>
+    <t>What type of contract are you employed on?</t>
+  </si>
+  <si>
+    <t>Lost source but modified</t>
+  </si>
+  <si>
+    <t>Added ‘Other/Not listed’</t>
+  </si>
+  <si>
+    <t>currentEmp11</t>
+  </si>
+  <si>
+    <t>What is the duration of your current contract?</t>
+  </si>
+  <si>
+    <t>FREENUMERIC</t>
+  </si>
+  <si>
+    <t>if “fixed term” in currentEmp7</t>
+  </si>
+  <si>
+    <t>Is this your first job?</t>
+  </si>
+  <si>
+    <t>removed to create the prevEmp1 to reword and include academia in the possible answers</t>
+  </si>
+  <si>
+    <t>Have you previously worked in the private sector?</t>
+  </si>
+  <si>
+    <t>Get merge into prevEmp1</t>
+  </si>
+  <si>
+    <t>prevEmp1</t>
+  </si>
+  <si>
+    <t>What was your previous job?</t>
+  </si>
+  <si>
+    <t>Why did you leave the private sector?</t>
+  </si>
+  <si>
+    <t>If yes to prevEmp1</t>
+  </si>
+  <si>
+    <t>several website see reference in collaboration.md</t>
+  </si>
+  <si>
+    <t>Asked if it was at uni or in private sector rather than just in private sector</t>
+  </si>
+  <si>
+    <t>What was the official job title of your previous job</t>
+  </si>
+  <si>
+    <t>We don't glean much from this question</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>prevEmp2</t>
+  </si>
+  <si>
+    <t>How important were the following features to your decision to accept your current position?</t>
+  </si>
+  <si>
+    <t>RSE interviews, review main features that people liked in their job</t>
+  </si>
+  <si>
+    <t>Want to get more info on what parts of the job attracted people to the position</t>
+  </si>
+  <si>
+    <t>What was the type of your contract?</t>
+  </si>
+  <si>
+    <t>If yes to prevEmp2</t>
+  </si>
+  <si>
+    <t>same items as for currentEmp9</t>
+  </si>
+  <si>
+    <t>currentWork1</t>
+  </si>
+  <si>
+    <t>Do you provide help and expertise in software development to researchers from across your organisation?</t>
+  </si>
+  <si>
+    <t>currentWORKCANADA</t>
+  </si>
+  <si>
+    <t>If no, is there such a group within your organization?</t>
+  </si>
+  <si>
+    <t>if no to currentWork1</t>
+  </si>
+  <si>
+    <t>currentWorkCan1</t>
+  </si>
+  <si>
+    <t>If no, do you think such a group would have value?</t>
+  </si>
+  <si>
+    <t>if no to currentWorkCAN1</t>
+  </si>
+  <si>
+    <t>currentWorkCan2</t>
+  </si>
+  <si>
+    <t>If yes, would you be interested in participating in such a group?</t>
+  </si>
+  <si>
+    <t>if no to currentWorkCAN2</t>
+  </si>
+  <si>
+    <t>currentWork2</t>
+  </si>
+  <si>
+    <t>Are you working in a larger group/organisation to provide this help/expertise?</t>
+  </si>
+  <si>
+    <t>if yes to currentWork1</t>
+  </si>
+  <si>
+    <t>Split previous question into two to avoid double items</t>
+  </si>
+  <si>
+    <t>currentWork3</t>
+  </si>
+  <si>
+    <t>What percentage of your time do you spend developing software each week?</t>
+  </si>
+  <si>
+    <t>paper1</t>
+  </si>
+  <si>
+    <t>Has your software contributed to research that has been published in a journal or at a conference?</t>
+  </si>
+  <si>
+    <t>paper2</t>
+  </si>
+  <si>
+    <t>In general, when your software contributes to a paper, are you acknowledged in that paper?</t>
+  </si>
+  <si>
+    <t>Changed phrasing to be more general</t>
+  </si>
+  <si>
+    <t>paper3</t>
+  </si>
+  <si>
+    <t>Are you generally named as the main author of the paper?</t>
+  </si>
+  <si>
+    <t>if yes to paper2</t>
+  </si>
+  <si>
+    <t>paper4</t>
+  </si>
+  <si>
+    <t>Are you generally named as a co-author of the paper?</t>
+  </si>
+  <si>
+    <t>if no to paper3</t>
+  </si>
+  <si>
+    <t>TO REMOVE</t>
+  </si>
+  <si>
+    <t>paper5</t>
+  </si>
+  <si>
+    <t>Are you generally acknowledged in the main paper?</t>
+  </si>
+  <si>
+    <t>if no to paper4</t>
+  </si>
+  <si>
+    <t>conf1</t>
   </si>
   <si>
     <t xml:space="preserve">Have you ever presented your software work at a conference or workshop? </t>
   </si>
   <si>
-    <t xml:space="preserve">conf2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes, which conference(s)/workshop(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if yes to con1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stability1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the bus factor of your most important software project?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stability2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there a technical hand-over plan for your most important software project?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfCheck1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you receive sufficient information on the results of your work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert (Time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfCheck2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does your work give you the opportunity to check on how well you are doing your work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfCheck3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your work, do you have access to sufficient data and information?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfCheck4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you receive sufficient information on the purpose of your work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfCheck5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does your work provide you with direct feedback on how well you are doing your work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfCheck6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does your supervisor/line manager inform you about how well you are doing your work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfCheck7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do your colleagues inform you about how well you are doing your work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turnOver1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How often do you feel frustrated when not given the opportunity to achieve your personal work-related goals?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turnOver2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How often do you look forward to another day at work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turnOver3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How often do you consider leaving your job?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turnOver4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How often do dream about getting another job that will better suit your needs?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turnOver5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My current job satisfies my personal needs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert (Agree)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turnOver6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would accept another job at the same compensation level if I was offered it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affRec1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am satisfied with my supervisor/line manager's confidence in me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affRec2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am satisfied with a word of thanks from my supervisor/line manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affRec3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am satisfied with the recognition I receive from my supervisor/line manager for doing my job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affRec4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am satisfied with the compliments from my supervisor/line manager concerning my work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affRec5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am satisfied with the encouragement from my supervisor/line manager while doing my job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percEmp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would not be very difficult for me to get an equivalent job in a different organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percEmp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can think of a number of organisations that would probably offer me a job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percEmp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My experience is in demand on the labour market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percEmp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given my qualifications and experience, getting a new job would not be very hard at all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affSat1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I find real enjoyment in my job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affSat2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most days I am enthusiastic about my job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affSat3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I feel fairly well satisfied with my job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affSat4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like my job better than the average person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your opinion, what are the three most important skills that a Research Software Engineer must possess?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 FREETEXT (skills)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skill2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What three skills would you like to acquire or improve to help your work as a Research Software Engineer? The skills can be technical and non-technical.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tool1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are the three tools or services you use most often to achieve your work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tool2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is your Operating System of choice for use at work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socio2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please select your gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gov.uk/service-manual/user-centred-design/resources/patterns/gender-and-sex.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DROPDOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socio3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please select your ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.academia.edu/1112558/Comparative_study_on_the_collection_of_data_to_measure_the_extent_and_impact_of_discrimination_within_the_United_States_Canada_Australia_the_United_Kingdom_and_the_Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We need to start investigating ethnicity too</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socio4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please select your age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please select the range of your salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukrse1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you a member of the UK RSE Association? (Members are people who have signed up to the UK RSE mailing list)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSI Ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMF Ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why am I asking this</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What percentage of your time is spent on research?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What percentage of the time you spend writing software is spent on new development/enhancement?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What percentage of the time you spend writing software is devoted to maintenance and support activities?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many years of software development experience do you have?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you consider yourself a professional software developer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many software projects are you currently involved in?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many software developers typically work on your projects?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just me, 2, 3-5, 6-9, 10+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What percentage of these developers are dedicated to the project full time?</t>
+    <t>conf2</t>
+  </si>
+  <si>
+    <t>If yes, which conference(s)/workshop(s)</t>
+  </si>
+  <si>
+    <t>if yes to con1</t>
+  </si>
+  <si>
+    <t>stability1</t>
+  </si>
+  <si>
+    <t>What is the bus factor of your most important software project?</t>
+  </si>
+  <si>
+    <t>stability2</t>
+  </si>
+  <si>
+    <t>Is there a technical hand-over plan for your most important software project?</t>
+  </si>
+  <si>
+    <t>perfCheck1</t>
+  </si>
+  <si>
+    <t>Do you receive sufficient information on the results of your work?</t>
+  </si>
+  <si>
+    <t>Likert (Time)</t>
+  </si>
+  <si>
+    <t>perfCheck2</t>
+  </si>
+  <si>
+    <t>Does your work give you the opportunity to check on how well you are doing your work?</t>
+  </si>
+  <si>
+    <t>perfCheck3</t>
+  </si>
+  <si>
+    <t>In your work, do you have access to sufficient data and information?</t>
+  </si>
+  <si>
+    <t>perfCheck4</t>
+  </si>
+  <si>
+    <t>Do you receive sufficient information on the purpose of your work?</t>
+  </si>
+  <si>
+    <t>perfCheck5</t>
+  </si>
+  <si>
+    <t>Does your work provide you with direct feedback on how well you are doing your work?</t>
+  </si>
+  <si>
+    <t>perfCheck6</t>
+  </si>
+  <si>
+    <t>Does your supervisor/line manager inform you about how well you are doing your work?</t>
+  </si>
+  <si>
+    <t>perfCheck7</t>
+  </si>
+  <si>
+    <t>Do your colleagues inform you about how well you are doing your work?</t>
+  </si>
+  <si>
+    <t>turnOver1</t>
+  </si>
+  <si>
+    <t>How often do you feel frustrated when not given the opportunity to achieve your personal work-related goals?</t>
+  </si>
+  <si>
+    <t>turnOver2</t>
+  </si>
+  <si>
+    <t>How often do you look forward to another day at work?</t>
+  </si>
+  <si>
+    <t>turnOver3</t>
+  </si>
+  <si>
+    <t>How often do you consider leaving your job?</t>
+  </si>
+  <si>
+    <t>turnOver4</t>
+  </si>
+  <si>
+    <t>How often do dream about getting another job that will better suit your needs?</t>
+  </si>
+  <si>
+    <t>turnOver5</t>
+  </si>
+  <si>
+    <t>My current job satisfies my personal needs</t>
+  </si>
+  <si>
+    <t>Likert (Agree)</t>
+  </si>
+  <si>
+    <t>turnOver6</t>
+  </si>
+  <si>
+    <t>I would accept another job at the same compensation level if I was offered it</t>
+  </si>
+  <si>
+    <t>affRec1</t>
+  </si>
+  <si>
+    <t>I am satisfied with my supervisor/line manager's confidence in me</t>
+  </si>
+  <si>
+    <t>affRec2</t>
+  </si>
+  <si>
+    <t>I am satisfied with a word of thanks from my supervisor/line manager</t>
+  </si>
+  <si>
+    <t>affRec3</t>
+  </si>
+  <si>
+    <t>I am satisfied with the recognition I receive from my supervisor/line manager for doing my job</t>
+  </si>
+  <si>
+    <t>affRec4</t>
+  </si>
+  <si>
+    <t>I am satisfied with the compliments from my supervisor/line manager concerning my work</t>
+  </si>
+  <si>
+    <t>affRec5</t>
+  </si>
+  <si>
+    <t>I am satisfied with the encouragement from my supervisor/line manager while doing my job</t>
+  </si>
+  <si>
+    <t>percEmp1</t>
+  </si>
+  <si>
+    <t>It would not be very difficult for me to get an equivalent job in a different organisation</t>
+  </si>
+  <si>
+    <t>percEmp2</t>
+  </si>
+  <si>
+    <t>I can think of a number of organisations that would probably offer me a job</t>
+  </si>
+  <si>
+    <t>percEmp3</t>
+  </si>
+  <si>
+    <t>My experience is in demand on the labour market</t>
+  </si>
+  <si>
+    <t>percEmp4</t>
+  </si>
+  <si>
+    <t>Given my qualifications and experience, getting a new job would not be very hard at all</t>
+  </si>
+  <si>
+    <t>affSat1</t>
+  </si>
+  <si>
+    <t>I find real enjoyment in my job</t>
+  </si>
+  <si>
+    <t>affSat2</t>
+  </si>
+  <si>
+    <t>Most days I am enthusiastic about my job</t>
+  </si>
+  <si>
+    <t>affSat3</t>
+  </si>
+  <si>
+    <t>I feel fairly well satisfied with my job</t>
+  </si>
+  <si>
+    <t>affSat4</t>
+  </si>
+  <si>
+    <t>I like my job better than the average person</t>
+  </si>
+  <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>In your opinion, what are the three most important skills that a Research Software Engineer must possess?</t>
+  </si>
+  <si>
+    <t>3 FREETEXT (skills)</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>What three skills would you like to acquire or improve to help your work as a Research Software Engineer? The skills can be technical and non-technical.</t>
+  </si>
+  <si>
+    <t>tool1</t>
+  </si>
+  <si>
+    <t>What are the three tools or services you use most often to achieve your work?</t>
+  </si>
+  <si>
+    <t>tool2</t>
+  </si>
+  <si>
+    <t>What is your Operating System of choice for use at work?</t>
+  </si>
+  <si>
+    <t>socio2</t>
+  </si>
+  <si>
+    <t>Please select your gender</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/service-manual/user-centred-design/resources/patterns/gender-and-sex.html</t>
+  </si>
+  <si>
+    <t>DROPDOWN</t>
+  </si>
+  <si>
+    <t>socio3</t>
+  </si>
+  <si>
+    <t>Please select your ethnicity</t>
+  </si>
+  <si>
+    <t>https://www.academia.edu/1112558/Comparative_study_on_the_collection_of_data_to_measure_the_extent_and_impact_of_discrimination_within_the_United_States_Canada_Australia_the_United_Kingdom_and_the_Netherlands</t>
+  </si>
+  <si>
+    <t>We need to start investigating ethnicity too</t>
+  </si>
+  <si>
+    <t>socio4</t>
+  </si>
+  <si>
+    <t>Please select your age</t>
+  </si>
+  <si>
+    <t>Please select the range of your salary</t>
+  </si>
+  <si>
+    <t>ukrse1</t>
+  </si>
+  <si>
+    <t>Are you a member of the UK RSE Association? (Members are people who have signed up to the UK RSE mailing list)</t>
+  </si>
+  <si>
+    <t>SSI Ref</t>
+  </si>
+  <si>
+    <t>PMF Ref</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Why am I asking this</t>
+  </si>
+  <si>
+    <t>What percentage of your time is spent on research?</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>What percentage of the time you spend writing software is spent on new development/enhancement?</t>
+  </si>
+  <si>
+    <t>What percentage of the time you spend writing software is devoted to maintenance and support activities?</t>
+  </si>
+  <si>
+    <t>How many years of software development experience do you have?</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Do you consider yourself a professional software developer?</t>
+  </si>
+  <si>
+    <t>Y/N</t>
+  </si>
+  <si>
+    <t>How many software projects are you currently involved in?</t>
+  </si>
+  <si>
+    <t>How many software developers typically work on your projects?</t>
+  </si>
+  <si>
+    <t>Just me, 2, 3-5, 6-9, 10+</t>
+  </si>
+  <si>
+    <t>What percentage of these developers are dedicated to the project full time?</t>
   </si>
   <si>
     <t xml:space="preserve">How are your projects typically tested (check all that apply)? </t>
   </si>
   <si>
-    <t xml:space="preserve">No formal testing, the developers do their own testing, dedicated test engineers, user testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do your research software projects typically include a project manager?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What development methodology does your current project use?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waterfall, Scrum, Kanban, other, no formal methodology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;list&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What percentage of the software projects you've worked on are released under an open source license?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List any open repositories (eg. GitHub) to which your software projects have been published.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What percentage of the software projects you've worked on have an associated Digital Object Identifier (DOI)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What programming languages do you use in developing research software? Please list in order, beginning with most frequently used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What platform(s) are your research software projects deployed on (check all that apply)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute Canada HPC, University compute centre, Other HPC, Cloud, Stand-alone server(s), Laptop/desktop, Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do any of your current projects make use of a data management or data archiving component?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes, is it part of your software or an external system (please specify)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check boxes with text field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do any of your current projects accommodate the open/public sharing of data?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If yes, is the creation of a Digital Object Identifier (DOI) and metadata for individual assets supported?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would you be interested in joining such an organization if one was formed in Canada?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What would you hope to get out of such an organization (check all that apply)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Networking, software collaborations, research collaborations, training, research software standards and interoperability definition, job opportunities, other(specify)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How is your current research software work funded?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employer, CANARIE, CFI, CIHR, Genome Canada, NSERC, SSHRC, Don't know, Other (specify)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who else should be aware of this survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you developed software that is accessed from multiple institutions?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do any of your current or previous projects make use of the Canadian Access Federation (CAF) Federated Identity Management (FIM) service?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List any public identity providers (Google, Facebook, Live, LinkedIn, Twitter etc.) used in your current or previous projects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drives PI-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you ever visited the research software registry at science.canarie.ca?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blatent marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many software components from science.canarie.ca have you integrated into your projects?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socio 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you work in Canada?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identify target audience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rse 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you write software for research as part of your job?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edu 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the highest level of education you have attained?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High School, Some College, College Diploma, Some University, Bachelors Degree, Masters Degree, Doctorate, Other, None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understand the background of research software developers to understand training needs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edu 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In which discipline is your highest academic qualification?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSERC Codes + Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edu 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List any professional qualifications you hold (eg. P. Eng, PMP, …)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rse 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What percentage of your time is spent developing software?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understand research software development practices to see what efficiencies from commercial software development we can encourage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What type of organization do you work for?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University, college, non-profit, charity, government department, private sector, other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understand if we need to expand community beyond universities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is your current job title?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;text&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determine how we might be able to identify members of this community so we can communicate with them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In which application area do you primarily work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSERC Codes + Multi-discipline + Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combine with experience questions to identify disciplines that could benefit from professional software developers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the nature of your current employment?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full-time, part-time, co-op/intern, grad student, post doc, contract, consultant, self-employed, other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaks to the efficiency of software development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you work within a group that provides software development help or expertise to researchers from across your organization?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow up on feedback from outreach suggesting that such a group is a good idea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you contributed software to research that has been published in a journal or presented at a conference?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understand how software is seen by the research community in Canada. This is useful for comparison to other countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your opinion, what are the three most important skills that a Research Software Developer must possess? These skills can be technical and non-technical.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identify areas for presentation at future workshops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What three skills would you like to acquire or improve to help your work as a Research Software Developer? These skills can be technical and non-technical.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are the three tools or services you use most often in your software work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understanding the skillset and where the CANARIE team might be able to add value. Also understand what servcices might have greatest impact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is your Operating System of choice for deployment?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNU/Linux, Mac OS, Windows, iOS, Android, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you a member of an association of Research Software Developers (UK RSE, for example)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Determine if there is there a benefit to us supporting the creation of such an organization</t>
+    <t>No formal testing, the developers do their own testing, dedicated test engineers, user testing</t>
+  </si>
+  <si>
+    <t>Do your research software projects typically include a project manager?</t>
+  </si>
+  <si>
+    <t>What development methodology does your current project use?</t>
+  </si>
+  <si>
+    <t>Waterfall, Scrum, Kanban, other, no formal methodology</t>
+  </si>
+  <si>
+    <t>&lt;list&gt;</t>
+  </si>
+  <si>
+    <t>What percentage of the software projects you've worked on are released under an open source license?</t>
+  </si>
+  <si>
+    <t>List any open repositories (eg. GitHub) to which your software projects have been published.</t>
+  </si>
+  <si>
+    <t>RDC</t>
+  </si>
+  <si>
+    <t>What percentage of the software projects you've worked on have an associated Digital Object Identifier (DOI)?</t>
+  </si>
+  <si>
+    <t>What programming languages do you use in developing research software? Please list in order, beginning with most frequently used.</t>
+  </si>
+  <si>
+    <t>What platform(s) are your research software projects deployed on (check all that apply)?</t>
+  </si>
+  <si>
+    <t>Compute Canada HPC, University compute centre, Other HPC, Cloud, Stand-alone server(s), Laptop/desktop, Mobile</t>
+  </si>
+  <si>
+    <t>PI-51</t>
+  </si>
+  <si>
+    <t>Do any of your current projects make use of a data management or data archiving component?</t>
+  </si>
+  <si>
+    <t>If yes, is it part of your software or an external system (please specify)</t>
+  </si>
+  <si>
+    <t>Check boxes with text field</t>
+  </si>
+  <si>
+    <t>Do any of your current projects accommodate the open/public sharing of data?</t>
+  </si>
+  <si>
+    <t>If yes, is the creation of a Digital Object Identifier (DOI) and metadata for individual assets supported?</t>
+  </si>
+  <si>
+    <t>Would you be interested in joining such an organization if one was formed in Canada?</t>
+  </si>
+  <si>
+    <t>What would you hope to get out of such an organization (check all that apply)?</t>
+  </si>
+  <si>
+    <t>Networking, software collaborations, research collaborations, training, research software standards and interoperability definition, job opportunities, other(specify)</t>
+  </si>
+  <si>
+    <t>How is your current research software work funded?</t>
+  </si>
+  <si>
+    <t>Employer, CANARIE, CFI, CIHR, Genome Canada, NSERC, SSHRC, Don't know, Other (specify)</t>
+  </si>
+  <si>
+    <t>Who else should be aware of this survey</t>
+  </si>
+  <si>
+    <t>Have you developed software that is accessed from multiple institutions?</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>Do any of your current or previous projects make use of the Canadian Access Federation (CAF) Federated Identity Management (FIM) service?</t>
+  </si>
+  <si>
+    <t>List any public identity providers (Google, Facebook, Live, LinkedIn, Twitter etc.) used in your current or previous projects.</t>
+  </si>
+  <si>
+    <t>drives PI-44</t>
+  </si>
+  <si>
+    <t>Have you ever visited the research software registry at science.canarie.ca?</t>
+  </si>
+  <si>
+    <t>Blatent marketing</t>
+  </si>
+  <si>
+    <t>PI-43</t>
+  </si>
+  <si>
+    <t>How many software components from science.canarie.ca have you integrated into your projects?</t>
+  </si>
+  <si>
+    <t>socio 1</t>
+  </si>
+  <si>
+    <t>Do you work in Canada?</t>
+  </si>
+  <si>
+    <t>Identify target audience</t>
+  </si>
+  <si>
+    <t>rse 1</t>
+  </si>
+  <si>
+    <t>Do you write software for research as part of your job?</t>
+  </si>
+  <si>
+    <t>edu 1</t>
+  </si>
+  <si>
+    <t>What is the highest level of education you have attained?</t>
+  </si>
+  <si>
+    <t>High School, Some College, College Diploma, Some University, Bachelors Degree, Masters Degree, Doctorate, Other, None</t>
+  </si>
+  <si>
+    <t>Understand the background of research software developers to understand training needs</t>
+  </si>
+  <si>
+    <t>edu 2</t>
+  </si>
+  <si>
+    <t>In which discipline is your highest academic qualification?</t>
+  </si>
+  <si>
+    <t>NSERC Codes + Other</t>
+  </si>
+  <si>
+    <t>edu 4</t>
+  </si>
+  <si>
+    <t>List any professional qualifications you hold (eg. P. Eng, PMP, …)?</t>
+  </si>
+  <si>
+    <t>rse 2</t>
+  </si>
+  <si>
+    <t>What percentage of your time is spent developing software?</t>
+  </si>
+  <si>
+    <t>Understand research software development practices to see what efficiencies from commercial software development we can encourage.</t>
+  </si>
+  <si>
+    <t>What type of organization do you work for?</t>
+  </si>
+  <si>
+    <t>University, college, non-profit, charity, government department, private sector, other</t>
+  </si>
+  <si>
+    <t>Understand if we need to expand community beyond universities</t>
+  </si>
+  <si>
+    <t>What is your current job title?</t>
+  </si>
+  <si>
+    <t>&lt;text&gt;</t>
+  </si>
+  <si>
+    <t>Determine how we might be able to identify members of this community so we can communicate with them</t>
+  </si>
+  <si>
+    <t>In which application area do you primarily work?</t>
+  </si>
+  <si>
+    <t>NSERC Codes + Multi-discipline + Other</t>
+  </si>
+  <si>
+    <t>Combine with experience questions to identify disciplines that could benefit from professional software developers</t>
+  </si>
+  <si>
+    <t>What is the nature of your current employment?</t>
+  </si>
+  <si>
+    <t>Full-time, part-time, co-op/intern, grad student, post doc, contract, consultant, self-employed, other</t>
+  </si>
+  <si>
+    <t>Speaks to the efficiency of software development</t>
+  </si>
+  <si>
+    <t>Do you work within a group that provides software development help or expertise to researchers from across your organization?</t>
+  </si>
+  <si>
+    <t>Follow up on feedback from outreach suggesting that such a group is a good idea</t>
+  </si>
+  <si>
+    <t>Have you contributed software to research that has been published in a journal or presented at a conference?</t>
+  </si>
+  <si>
+    <t>Understand how software is seen by the research community in Canada. This is useful for comparison to other countries</t>
+  </si>
+  <si>
+    <t>In your opinion, what are the three most important skills that a Research Software Developer must possess? These skills can be technical and non-technical.</t>
+  </si>
+  <si>
+    <t>Identify areas for presentation at future workshops</t>
+  </si>
+  <si>
+    <t>What three skills would you like to acquire or improve to help your work as a Research Software Developer? These skills can be technical and non-technical.</t>
+  </si>
+  <si>
+    <t>What are the three tools or services you use most often in your software work?</t>
+  </si>
+  <si>
+    <t>Understanding the skillset and where the CANARIE team might be able to add value. Also understand what servcices might have greatest impact.</t>
+  </si>
+  <si>
+    <t>What is your Operating System of choice for deployment?</t>
+  </si>
+  <si>
+    <t>GNU/Linux, Mac OS, Windows, iOS, Android, Other</t>
+  </si>
+  <si>
+    <t>Are you a member of an association of Research Software Developers (UK RSE, for example)?</t>
+  </si>
+  <si>
+    <t>Determine if there is there a benefit to us supporting the creation of such an organization</t>
+  </si>
+  <si>
+    <t>Question no.</t>
+  </si>
+  <si>
+    <t>UK 2017</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>different question</t>
+  </si>
+  <si>
+    <t>different answer</t>
+  </si>
+  <si>
+    <t>Notes or concerns</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>Potential answers</t>
+  </si>
+  <si>
+    <t>Add to UK survey</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>Yes, Likert from "all the time" to "never" and put tyhis with the tech handover and bus factor questions</t>
+  </si>
+  <si>
+    <t>Yes, put next to the software tools question</t>
+  </si>
+  <si>
+    <t>Yes, but need something along the lines of "Who funds your work?" Checklist with tick as many as apply with all major funders and "other"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1064,57 +1115,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFED7D31"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1124,6 +1131,34 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1168,7 +1203,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1176,219 +1211,130 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="42">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
       </font>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1447,38 +1393,408 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>939800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>939800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="1:1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.24651162790698"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="16.0697674418605"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="68.2"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.2697674418605"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.4046511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.753488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.5767441860465"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="71.7767441860465"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="82.353488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="14.4976744186047"/>
+    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="74.6640625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>323</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1513,8 +1829,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="15.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1546,8 +1862,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="true" ht="44.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1575,8 +1891,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1610,8 +1926,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1636,8 +1952,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:11" ht="182" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1655,11 +1971,11 @@
       <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="0"/>
+      <c r="G6"/>
       <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="0"/>
+      <c r="I6"/>
       <c r="J6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1667,7 +1983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1693,8 +2009,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1722,33 +2038,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9"/>
+      <c r="B9"/>
       <c r="C9" s="15"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10"/>
+      <c r="B10"/>
       <c r="C10" s="15"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-    </row>
-    <row r="11" s="11" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="B11" s="11" t="s">
         <v>40</v>
       </c>
@@ -1774,8 +2090,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" s="19" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="n">
+    <row r="12" spans="1:11" s="19" customFormat="1" ht="168" x14ac:dyDescent="0.15">
+      <c r="A12" s="16">
         <v>1</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1798,8 +2114,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="n">
+    <row r="13" spans="1:11" ht="35.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16">
         <v>1</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1812,12 +2128,12 @@
       <c r="E13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
+      <c r="F13"/>
+      <c r="G13"/>
       <c r="H13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="0"/>
+      <c r="I13"/>
       <c r="J13" s="19" t="s">
         <v>17</v>
       </c>
@@ -1825,8 +2141,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
+    <row r="14" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16">
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1842,18 +2158,18 @@
       <c r="F14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="0"/>
+      <c r="G14"/>
       <c r="H14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="0"/>
+      <c r="I14"/>
       <c r="J14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="0"/>
-    </row>
-    <row r="15" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1881,8 +2197,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
         <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1900,7 +2216,7 @@
       <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>60</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -1916,8 +2232,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1941,14 +2257,14 @@
       <c r="H17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="0"/>
+      <c r="I17"/>
       <c r="J17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="0"/>
-    </row>
-    <row r="18" s="4" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1979,8 +2295,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+    <row r="19" spans="1:11" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2005,8 +2321,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="168" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2034,8 +2350,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+      <c r="A21" s="14">
         <v>2</v>
       </c>
       <c r="B21" s="14"/>
@@ -2061,8 +2377,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2093,8 +2409,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2116,7 +2432,7 @@
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="0"/>
+      <c r="I23"/>
       <c r="J23" s="4" t="s">
         <v>17</v>
       </c>
@@ -2124,11 +2440,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:11" ht="98" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2143,7 +2459,7 @@
       <c r="F24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="0"/>
+      <c r="G24"/>
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
@@ -2157,8 +2473,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
         <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -2186,8 +2502,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" s="19" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="n">
+    <row r="26" spans="1:11" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A26" s="16">
         <v>3</v>
       </c>
       <c r="B26" s="16"/>
@@ -2210,12 +2526,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="n">
+    <row r="27" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="A27" s="19">
         <v>3</v>
       </c>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
+      <c r="B27"/>
+      <c r="C27"/>
       <c r="D27" s="18" t="s">
         <v>96</v>
       </c>
@@ -2225,11 +2541,11 @@
       <c r="F27" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="0"/>
+      <c r="G27"/>
       <c r="H27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="0"/>
+      <c r="I27"/>
       <c r="J27" s="19" t="s">
         <v>17</v>
       </c>
@@ -2237,8 +2553,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" s="11" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="n">
+    <row r="28" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
         <v>3</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -2263,8 +2579,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" s="19" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="n">
+    <row r="29" spans="1:11" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A29" s="16">
         <v>3</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -2295,14 +2611,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="n">
+    <row r="30" spans="1:11" ht="98" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
         <v>3</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="0"/>
+      <c r="C30"/>
       <c r="D30" s="18" t="s">
         <v>104</v>
       </c>
@@ -2312,11 +2628,11 @@
       <c r="F30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="0"/>
+      <c r="G30"/>
       <c r="H30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="0"/>
+      <c r="I30"/>
       <c r="J30" s="19" t="s">
         <v>17</v>
       </c>
@@ -2324,7 +2640,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" s="11" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11" s="11" customFormat="1" ht="154" x14ac:dyDescent="0.15">
       <c r="B31" s="11" t="s">
         <v>106</v>
       </c>
@@ -2353,8 +2669,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" s="19" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="n">
+    <row r="32" spans="1:11" s="19" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A32" s="16">
         <v>3</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -2385,8 +2701,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="true" ht="26.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:11" s="4" customFormat="1" ht="196" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2414,8 +2730,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" s="20" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="n">
+    <row r="34" spans="1:11" s="20" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+      <c r="A34" s="20">
         <v>4</v>
       </c>
       <c r="C34" s="20" t="s">
@@ -2434,7 +2750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" s="20" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11" s="20" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="C35" s="20" t="s">
         <v>119</v>
       </c>
@@ -2451,7 +2767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" s="20" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:11" s="20" customFormat="1" ht="126" x14ac:dyDescent="0.15">
       <c r="C36" s="20" t="s">
         <v>122</v>
       </c>
@@ -2468,8 +2784,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" s="22" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="n">
+    <row r="37" spans="1:11" s="22" customFormat="1" ht="154" x14ac:dyDescent="0.15">
+      <c r="A37" s="22">
         <v>4</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -2495,14 +2811,14 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
         <v>4</v>
       </c>
       <c r="D38" s="10"/>
     </row>
-    <row r="39" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+    <row r="39" spans="1:11" s="9" customFormat="1" ht="154" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
         <v>4</v>
       </c>
       <c r="B39" s="6"/>
@@ -2525,8 +2841,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+    <row r="40" spans="1:11" s="9" customFormat="1" ht="182" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
         <v>4</v>
       </c>
       <c r="B40" s="6"/>
@@ -2549,8 +2865,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" s="4" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+    <row r="41" spans="1:11" s="4" customFormat="1" ht="182" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
         <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -2572,8 +2888,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+    <row r="42" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
         <v>4</v>
       </c>
       <c r="B42" s="4"/>
@@ -2595,17 +2911,17 @@
       <c r="H42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
+      <c r="I42"/>
+      <c r="J42"/>
       <c r="K42" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+    <row r="43" spans="1:11" ht="98" x14ac:dyDescent="0.15">
+      <c r="A43" s="4">
         <v>4</v>
       </c>
-      <c r="B43" s="0"/>
+      <c r="B43"/>
       <c r="C43" s="4" t="s">
         <v>139</v>
       </c>
@@ -2624,17 +2940,17 @@
       <c r="H43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
+      <c r="I43"/>
+      <c r="J43"/>
       <c r="K43" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+    <row r="44" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
         <v>4</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>142</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2655,14 +2971,14 @@
       <c r="H44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
+      <c r="I44"/>
+      <c r="J44"/>
       <c r="K44" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" s="25" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="n">
+    <row r="45" spans="1:11" s="25" customFormat="1" ht="140" x14ac:dyDescent="0.15">
+      <c r="A45" s="20">
         <v>4</v>
       </c>
       <c r="C45" s="20" t="s">
@@ -2681,8 +2997,8 @@
       </c>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" s="25" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20" t="n">
+    <row r="46" spans="1:11" s="25" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A46" s="20">
         <v>4</v>
       </c>
       <c r="C46" s="20" t="s">
@@ -2703,8 +3019,8 @@
       </c>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="112" x14ac:dyDescent="0.15">
+      <c r="A47" s="6">
         <v>4</v>
       </c>
       <c r="B47" s="6"/>
@@ -2725,8 +3041,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="126" x14ac:dyDescent="0.15">
+      <c r="A48" s="6">
         <v>4</v>
       </c>
       <c r="B48" s="6"/>
@@ -2747,8 +3063,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
+    <row r="49" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
         <v>5</v>
       </c>
       <c r="B49" s="6"/>
@@ -2768,12 +3084,12 @@
       <c r="H49" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" ht="168" x14ac:dyDescent="0.15">
+      <c r="A50" s="6">
         <v>5</v>
       </c>
       <c r="B50" s="6"/>
@@ -2793,12 +3109,12 @@
       <c r="H50" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="A51" s="6">
         <v>5</v>
       </c>
       <c r="B51" s="6"/>
@@ -2818,12 +3134,12 @@
       <c r="H51" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="A52" s="6">
         <v>5</v>
       </c>
       <c r="B52" s="6"/>
@@ -2843,12 +3159,12 @@
       <c r="H52" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
-      <c r="K52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:11" ht="168" x14ac:dyDescent="0.15">
+      <c r="A53" s="6">
         <v>5</v>
       </c>
       <c r="B53" s="6"/>
@@ -2868,12 +3184,12 @@
       <c r="H53" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="n">
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" ht="182" x14ac:dyDescent="0.15">
+      <c r="A54" s="6">
         <v>5</v>
       </c>
       <c r="B54" s="6"/>
@@ -2893,12 +3209,12 @@
       <c r="H54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="n">
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" ht="140" x14ac:dyDescent="0.15">
+      <c r="A55" s="6">
         <v>5</v>
       </c>
       <c r="B55" s="6"/>
@@ -2918,12 +3234,12 @@
       <c r="H55" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="n">
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" ht="196" x14ac:dyDescent="0.15">
+      <c r="A56" s="6">
         <v>5</v>
       </c>
       <c r="B56" s="6"/>
@@ -2943,12 +3259,12 @@
       <c r="H56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="n">
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+      <c r="A57" s="6">
         <v>5</v>
       </c>
       <c r="B57" s="6"/>
@@ -2968,12 +3284,12 @@
       <c r="H57" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+      <c r="A58" s="6">
         <v>5</v>
       </c>
       <c r="B58" s="6"/>
@@ -2993,12 +3309,12 @@
       <c r="H58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="n">
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" ht="140" x14ac:dyDescent="0.15">
+      <c r="A59" s="6">
         <v>5</v>
       </c>
       <c r="B59" s="6"/>
@@ -3018,12 +3334,12 @@
       <c r="H59" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="n">
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" ht="98" x14ac:dyDescent="0.15">
+      <c r="A60" s="6">
         <v>5</v>
       </c>
       <c r="B60" s="6"/>
@@ -3043,12 +3359,12 @@
       <c r="H60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="n">
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="1:11" ht="140" x14ac:dyDescent="0.15">
+      <c r="A61" s="6">
         <v>5</v>
       </c>
       <c r="B61" s="6"/>
@@ -3068,12 +3384,12 @@
       <c r="H61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I61" s="0"/>
-      <c r="J61" s="0"/>
-      <c r="K61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" ht="126" x14ac:dyDescent="0.15">
+      <c r="A62" s="6">
         <v>5</v>
       </c>
       <c r="B62" s="6"/>
@@ -3093,12 +3409,12 @@
       <c r="H62" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="0"/>
-      <c r="J62" s="0"/>
-      <c r="K62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" ht="126" x14ac:dyDescent="0.15">
+      <c r="A63" s="6">
         <v>5</v>
       </c>
       <c r="B63" s="6"/>
@@ -3118,12 +3434,12 @@
       <c r="H63" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="0"/>
-      <c r="J63" s="0"/>
-      <c r="K63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="n">
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" ht="168" x14ac:dyDescent="0.15">
+      <c r="A64" s="6">
         <v>5</v>
       </c>
       <c r="B64" s="6"/>
@@ -3143,12 +3459,12 @@
       <c r="H64" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="0"/>
-      <c r="J64" s="0"/>
-      <c r="K64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="n">
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" ht="168" x14ac:dyDescent="0.15">
+      <c r="A65" s="6">
         <v>5</v>
       </c>
       <c r="B65" s="6"/>
@@ -3168,12 +3484,12 @@
       <c r="H65" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="0"/>
-      <c r="J65" s="0"/>
-      <c r="K65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="n">
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" ht="168" x14ac:dyDescent="0.15">
+      <c r="A66" s="6">
         <v>5</v>
       </c>
       <c r="B66" s="6"/>
@@ -3193,12 +3509,12 @@
       <c r="H66" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I66" s="0"/>
-      <c r="J66" s="0"/>
-      <c r="K66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="n">
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" ht="168" x14ac:dyDescent="0.15">
+      <c r="A67" s="6">
         <v>5</v>
       </c>
       <c r="B67" s="6"/>
@@ -3218,12 +3534,12 @@
       <c r="H67" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="26.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="n">
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" ht="140" x14ac:dyDescent="0.15">
+      <c r="A68" s="6">
         <v>5</v>
       </c>
       <c r="B68" s="6"/>
@@ -3243,12 +3559,12 @@
       <c r="H68" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="0"/>
-      <c r="J68" s="0"/>
-      <c r="K68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="n">
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" ht="98" x14ac:dyDescent="0.15">
+      <c r="A69" s="6">
         <v>5</v>
       </c>
       <c r="B69" s="6"/>
@@ -3268,12 +3584,12 @@
       <c r="H69" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
-      <c r="K69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="n">
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" ht="154" x14ac:dyDescent="0.15">
+      <c r="A70" s="6">
         <v>5</v>
       </c>
       <c r="B70" s="6"/>
@@ -3293,12 +3609,12 @@
       <c r="H70" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
-      <c r="K70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="n">
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="A71" s="6">
         <v>5</v>
       </c>
       <c r="B71" s="6"/>
@@ -3318,12 +3634,12 @@
       <c r="H71" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I71" s="0"/>
-      <c r="J71" s="0"/>
-      <c r="K71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="n">
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" ht="98" x14ac:dyDescent="0.15">
+      <c r="A72" s="6">
         <v>5</v>
       </c>
       <c r="B72" s="6"/>
@@ -3343,12 +3659,12 @@
       <c r="H72" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-      <c r="K72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="n">
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+      <c r="A73" s="6">
         <v>5</v>
       </c>
       <c r="B73" s="6"/>
@@ -3368,12 +3684,12 @@
       <c r="H73" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I73" s="0"/>
-      <c r="J73" s="0"/>
-      <c r="K73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="n">
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+      <c r="A74" s="6">
         <v>5</v>
       </c>
       <c r="B74" s="6"/>
@@ -3393,12 +3709,12 @@
       <c r="H74" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I74" s="0"/>
-      <c r="J74" s="0"/>
-      <c r="K74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="n">
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="1:11" ht="196" x14ac:dyDescent="0.15">
+      <c r="A75" s="6">
         <v>6</v>
       </c>
       <c r="B75" s="6"/>
@@ -3418,12 +3734,12 @@
       <c r="H75" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I75" s="0"/>
-      <c r="J75" s="0"/>
-      <c r="K75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="39.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="n">
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="1:11" ht="308" x14ac:dyDescent="0.15">
+      <c r="A76" s="6">
         <v>6</v>
       </c>
       <c r="B76" s="6"/>
@@ -3443,12 +3759,12 @@
       <c r="H76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="0"/>
-      <c r="J76" s="0"/>
-      <c r="K76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="n">
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+    </row>
+    <row r="77" spans="1:11" ht="154" x14ac:dyDescent="0.15">
+      <c r="A77" s="6">
         <v>6</v>
       </c>
       <c r="B77" s="6"/>
@@ -3468,12 +3784,12 @@
       <c r="H77" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="n">
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" ht="98" x14ac:dyDescent="0.15">
+      <c r="A78" s="6">
         <v>6</v>
       </c>
       <c r="B78" s="6"/>
@@ -3493,12 +3809,12 @@
       <c r="H78" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="0"/>
-      <c r="J78" s="0"/>
-      <c r="K78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="n">
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="A79" s="6">
         <v>6</v>
       </c>
       <c r="B79" s="6"/>
@@ -3524,10 +3840,10 @@
       <c r="J79" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="0"/>
-    </row>
-    <row r="80" s="11" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="n">
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="1:11" s="11" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A80" s="14">
         <v>6</v>
       </c>
       <c r="B80" s="14" t="s">
@@ -3556,8 +3872,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6" t="n">
+    <row r="81" spans="1:11" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A81" s="6">
         <v>6</v>
       </c>
       <c r="B81" s="6"/>
@@ -3583,8 +3899,8 @@
       </c>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" s="9" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6" t="n">
+    <row r="82" spans="1:11" s="9" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A82" s="6">
         <v>6</v>
       </c>
       <c r="B82" s="6"/>
@@ -3610,8 +3926,8 @@
       </c>
       <c r="K82" s="6"/>
     </row>
-    <row r="83" s="9" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6" t="n">
+    <row r="83" spans="1:11" s="9" customFormat="1" ht="238" x14ac:dyDescent="0.15">
+      <c r="A83" s="6">
         <v>6</v>
       </c>
       <c r="B83" s="6"/>
@@ -3637,17 +3953,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$H37=same</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I80" r:id="rId1" display="https://www.academia.edu/1112558/Comparative_study_on_the_collection_of_data_to_measure_the_extent_and_impact_of_discrimination_within_the_United_States_Canada_Australia_the_United_Kingdom_and_the_Netherlands"/>
+    <hyperlink ref="I80" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -3655,917 +3970,945 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" zoomScalePageLayoutView="178" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.646511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="26" width="17.646511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="13.8093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="119.493023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="85.5767441860465"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="14.2186046511628"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.2186046511628"/>
+    <col min="1" max="1" width="8.83203125" style="31"/>
+    <col min="2" max="3" width="8.83203125" style="39"/>
+    <col min="4" max="4" width="108.1640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="35"/>
+    <col min="6" max="6" width="8.83203125" style="39"/>
+    <col min="7" max="16384" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="21" t="s">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="21" t="s">
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="21" t="s">
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-      <c r="F5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="21" t="s">
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="21" t="s">
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="F8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="21" t="s">
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="F9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="21" t="s">
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="F10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="21" t="s">
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="F12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="21" t="s">
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="F13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="21" t="s">
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="21" t="s">
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="21" t="s">
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="21" t="s">
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="21" t="s">
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="21" t="s">
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="21" t="s">
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="F21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="21" t="s">
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F22" s="0"/>
-    </row>
-    <row r="23" s="32" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31" t="s">
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="36" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="24" s="34" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="31" t="s">
+    <row r="24" spans="1:6" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="37" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="21" t="s">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="F26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="21" t="s">
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="F27" s="0"/>
-    </row>
-    <row r="28" s="34" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="31" t="s">
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="37" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="29" s="34" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31" t="s">
+    <row r="29" spans="1:6" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="37" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="30" s="34" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="31" t="s">
+    <row r="30" spans="1:6" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="31"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="37" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="31" s="34" customFormat="true" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31" t="s">
+    <row r="31" spans="1:6" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="31"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="37" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="21" t="s">
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="21" t="s">
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="F35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="21" t="s">
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="39" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="35" t="s">
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="37" t="s">
         <v>242</v>
       </c>
       <c r="F39" s="36" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D40" s="35" t="s">
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="37" t="s">
         <v>242</v>
       </c>
       <c r="F40" s="36" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="35" t="s">
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="37" t="s">
         <v>252</v>
       </c>
       <c r="F41" s="36" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="35"/>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="37"/>
       <c r="F42" s="36" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0"/>
-      <c r="C44" s="26" t="s">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="31"/>
+      <c r="C44" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="39" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0"/>
-      <c r="C45" s="26" t="s">
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="31"/>
+      <c r="C45" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="F45" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37"/>
-      <c r="B52" s="21" t="s">
+      <c r="F45" s="31"/>
+    </row>
+    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="40"/>
+      <c r="B52" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="21" t="s">
+      <c r="C52" s="40"/>
+      <c r="D52" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="37"/>
-      <c r="B53" s="21" t="s">
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+    </row>
+    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="40"/>
+      <c r="B53" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="21" t="s">
+      <c r="C53" s="40"/>
+      <c r="D53" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-    </row>
-    <row r="55" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37"/>
-      <c r="B55" s="21" t="s">
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+    </row>
+    <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+    </row>
+    <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="40"/>
+      <c r="B55" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="21" t="s">
+      <c r="C55" s="40"/>
+      <c r="D55" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37"/>
-      <c r="B56" s="21" t="s">
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+    </row>
+    <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="40"/>
+      <c r="B56" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="21" t="s">
+      <c r="C56" s="40"/>
+      <c r="D56" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37"/>
-      <c r="B57" s="21" t="s">
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+    </row>
+    <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="40"/>
+      <c r="B57" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="21" t="s">
+      <c r="C57" s="40"/>
+      <c r="D57" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-    </row>
-    <row r="59" customFormat="false" ht="127.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37"/>
-      <c r="B59" s="21" t="s">
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+    </row>
+    <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+    </row>
+    <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="40"/>
+      <c r="B59" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="21" t="s">
+      <c r="C59" s="40"/>
+      <c r="D59" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="26" t="s">
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+    </row>
+    <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="0"/>
-      <c r="D60" s="21" t="s">
+      <c r="C60" s="31"/>
+      <c r="D60" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="39" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="26" t="s">
+    <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="0"/>
-      <c r="D61" s="21" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="39" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="26" t="s">
+    <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="0"/>
-      <c r="D62" s="21" t="s">
+      <c r="C62" s="31"/>
+      <c r="D62" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="39" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-      <c r="D63" s="21" t="s">
+    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="31"/>
+      <c r="D63" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="39" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="26" t="s">
+    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+    </row>
+    <row r="65" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="0"/>
-      <c r="D65" s="21" t="s">
+      <c r="C65" s="31"/>
+      <c r="D65" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="39" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="26" t="s">
+    <row r="66" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="0"/>
-      <c r="D66" s="21" t="s">
+      <c r="C66" s="31"/>
+      <c r="D66" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="39" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="26" t="s">
+    <row r="67" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="0"/>
-      <c r="D67" s="21" t="s">
+      <c r="C67" s="31"/>
+      <c r="D67" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="26" t="s">
+      <c r="F67" s="31"/>
+    </row>
+    <row r="68" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="0"/>
-      <c r="D68" s="21" t="s">
+      <c r="C68" s="31"/>
+      <c r="D68" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="26" t="s">
+      <c r="F68" s="31"/>
+    </row>
+    <row r="69" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="0"/>
-      <c r="D69" s="21" t="s">
+      <c r="C69" s="31"/>
+      <c r="D69" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="26" t="s">
+      <c r="F69" s="31"/>
+    </row>
+    <row r="70" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="0"/>
-      <c r="D70" s="21" t="s">
+      <c r="C70" s="31"/>
+      <c r="D70" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="26" t="s">
+      <c r="F70" s="31"/>
+    </row>
+    <row r="71" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="0"/>
-      <c r="D71" s="21" t="s">
+      <c r="C71" s="31"/>
+      <c r="D71" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E71" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="F71" s="26" t="s">
+      <c r="F71" s="39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="26" t="s">
+    <row r="72" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="0"/>
-      <c r="D72" s="21" t="s">
+      <c r="C72" s="31"/>
+      <c r="D72" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E72" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0"/>
-      <c r="C73" s="0"/>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
-      <c r="F73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="21" t="s">
+    <row r="73" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+    </row>
+    <row r="74" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="26" t="s">
+      <c r="C74" s="35"/>
+      <c r="D74" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="39" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="F75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
-      <c r="D76" s="21" t="s">
+    <row r="75" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="F75" s="31"/>
+    </row>
+    <row r="76" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E76" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="F76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="21" t="s">
+      <c r="F76" s="31"/>
+    </row>
+    <row r="77" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21" t="s">
+      <c r="C77" s="35"/>
+      <c r="D77" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E77" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="39" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:73"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="1:1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="6.70232558139535"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="14.1674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="14.9953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="25" width="54.0558139534884"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="25" width="15.6883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="25" width="8.93488372093023"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="25" width="28.9627906976744"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="25" width="20.8697674418605"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="25" width="23.9813953488372"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="25" width="8.93488372093023"/>
+    <col min="1" max="1023" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="20" t="s">
@@ -4578,26 +4921,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
+    <row r="2" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="38"/>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="26"/>
       <c r="H2" s="20" t="s">
         <v>16</v>
       </c>
@@ -4607,19 +4950,19 @@
       <c r="J2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="n">
+      <c r="AMJ2"/>
+    </row>
+    <row r="3" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="20" t="s">
@@ -4635,8 +4978,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="n">
+    <row r="4" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -4645,7 +4988,7 @@
       <c r="C4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="20" t="s">
@@ -4666,19 +5009,19 @@
       <c r="J4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="n">
+      <c r="AMJ4"/>
+    </row>
+    <row r="5" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -4691,17 +5034,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="n">
+    <row r="6" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20">
         <v>1</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -4717,14 +5060,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="20" t="s">
@@ -4740,17 +5083,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="n">
+    <row r="8" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20">
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -4765,16 +5108,16 @@
       <c r="J8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AMJ8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMJ8"/>
+    </row>
+    <row r="9" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -4790,8 +5133,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="n">
+    <row r="10" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20">
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -4800,7 +5143,7 @@
       <c r="C10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="20" t="s">
@@ -4816,8 +5159,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="n">
+    <row r="11" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20">
         <v>2</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -4848,8 +5191,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="n">
+    <row r="12" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20">
         <v>2</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -4858,7 +5201,7 @@
       <c r="C12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="28" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="20" t="s">
@@ -4874,8 +5217,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="n">
+    <row r="13" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20">
         <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -4884,7 +5227,7 @@
       <c r="C13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -4902,10 +5245,10 @@
       <c r="J13" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
+      <c r="AMJ13"/>
+    </row>
+    <row r="14" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20">
         <v>2</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -4914,7 +5257,7 @@
       <c r="C14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E14" s="20" t="s">
@@ -4927,8 +5270,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+    <row r="15" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20">
         <v>2</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -4937,7 +5280,7 @@
       <c r="C15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="28" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -4952,17 +5295,17 @@
       <c r="J15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AMJ15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
+      <c r="AMJ15"/>
+    </row>
+    <row r="16" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20">
         <v>2</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="28" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="20" t="s">
@@ -4978,8 +5321,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
+    <row r="17" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20">
         <v>2</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -4988,7 +5331,7 @@
       <c r="C17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="28" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="20" t="s">
@@ -5006,10 +5349,10 @@
       <c r="J17" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AMJ17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="n">
+      <c r="AMJ17"/>
+    </row>
+    <row r="18" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20">
         <v>2</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -5018,7 +5361,7 @@
       <c r="C18" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="28" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -5035,8 +5378,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="n">
+    <row r="19" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20">
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -5045,7 +5388,7 @@
       <c r="C19" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="28" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="20" t="s">
@@ -5064,8 +5407,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="n">
+    <row r="20" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20">
         <v>2</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -5074,7 +5417,7 @@
       <c r="C20" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="28" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="20" t="s">
@@ -5090,8 +5433,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="n">
+    <row r="21" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="25">
         <v>3</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -5113,8 +5456,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="n">
+    <row r="22" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="25">
         <v>3</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -5123,7 +5466,7 @@
       <c r="C22" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="28" t="s">
         <v>108</v>
       </c>
       <c r="E22" s="25" t="s">
@@ -5142,8 +5485,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+    <row r="23" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20">
         <v>4</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -5152,7 +5495,7 @@
       <c r="C23" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="28" t="s">
         <v>115</v>
       </c>
       <c r="E23" s="20" t="s">
@@ -5167,16 +5510,16 @@
       <c r="J23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AMJ23" s="0"/>
-    </row>
-    <row r="24" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="n">
+      <c r="AMJ23"/>
+    </row>
+    <row r="24" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20">
         <v>4</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="29" t="s">
         <v>117</v>
       </c>
       <c r="E24" s="20" t="s">
@@ -5185,16 +5528,16 @@
       <c r="G24" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="AMJ24" s="0"/>
-    </row>
-    <row r="25" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="n">
+      <c r="AMJ24"/>
+    </row>
+    <row r="25" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20">
         <v>4</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="29" t="s">
         <v>120</v>
       </c>
       <c r="E25" s="20" t="s">
@@ -5203,16 +5546,16 @@
       <c r="G25" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="AMJ25" s="0"/>
-    </row>
-    <row r="26" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="n">
+      <c r="AMJ25"/>
+    </row>
+    <row r="26" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20">
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="29" t="s">
         <v>123</v>
       </c>
       <c r="E26" s="20" t="s">
@@ -5221,16 +5564,16 @@
       <c r="G26" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="AMJ26" s="0"/>
-    </row>
-    <row r="27" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="n">
+      <c r="AMJ26"/>
+    </row>
+    <row r="27" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20">
         <v>4</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="28" t="s">
         <v>126</v>
       </c>
       <c r="E27" s="20" t="s">
@@ -5246,24 +5589,24 @@
       <c r="J27" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="AMJ27" s="0"/>
-    </row>
-    <row r="28" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="n">
+      <c r="AMJ27"/>
+    </row>
+    <row r="28" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20">
         <v>4</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="AMJ28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="n">
+      <c r="D28" s="28"/>
+      <c r="AMJ28"/>
+    </row>
+    <row r="29" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20">
         <v>4</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="28" t="s">
         <v>130</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -5276,15 +5619,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="n">
+    <row r="30" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20">
         <v>4</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="28" t="s">
         <v>132</v>
       </c>
       <c r="E30" s="20" t="s">
@@ -5297,14 +5640,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" s="20" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="n">
+    <row r="31" spans="1:1024" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20">
         <v>4</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="28" t="s">
         <v>134</v>
       </c>
       <c r="E31" s="20" t="s">
@@ -5316,17 +5659,17 @@
       <c r="J31" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="AMJ31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="n">
+      <c r="AMJ31"/>
+    </row>
+    <row r="32" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20">
         <v>4</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="28" t="s">
         <v>137</v>
       </c>
       <c r="E32" s="20" t="s">
@@ -5342,14 +5685,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="n">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20">
         <v>4</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="28" t="s">
         <v>140</v>
       </c>
       <c r="E33" s="20" t="s">
@@ -5365,8 +5708,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="n">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="20">
         <v>4</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -5375,7 +5718,7 @@
       <c r="C34" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="28" t="s">
         <v>144</v>
       </c>
       <c r="E34" s="20" t="s">
@@ -5391,14 +5734,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="n">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="20">
         <v>4</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="29" t="s">
         <v>147</v>
       </c>
       <c r="E35" s="20" t="s">
@@ -5408,14 +5751,14 @@
       <c r="G35" s="20"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="n">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="20">
         <v>4</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="29" t="s">
         <v>149</v>
       </c>
       <c r="E36" s="20" t="s">
@@ -5427,15 +5770,15 @@
       </c>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20" t="n">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="20">
         <v>4</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E37" s="20" t="s">
@@ -5446,15 +5789,15 @@
       </c>
       <c r="G37" s="20"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="n">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="20">
         <v>4</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="28" t="s">
         <v>154</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -5465,15 +5808,15 @@
       </c>
       <c r="G38" s="20"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="n">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="20">
         <v>5</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="28" t="s">
         <v>156</v>
       </c>
       <c r="E39" s="25" t="s">
@@ -5484,15 +5827,15 @@
       </c>
       <c r="G39" s="20"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="n">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="20">
         <v>5</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="28" t="s">
         <v>159</v>
       </c>
       <c r="E40" s="25" t="s">
@@ -5503,15 +5846,15 @@
       </c>
       <c r="G40" s="20"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="n">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="20">
         <v>5</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="28" t="s">
         <v>161</v>
       </c>
       <c r="E41" s="25" t="s">
@@ -5522,15 +5865,15 @@
       </c>
       <c r="G41" s="20"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="n">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="20">
         <v>5</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="28" t="s">
         <v>163</v>
       </c>
       <c r="E42" s="25" t="s">
@@ -5541,15 +5884,15 @@
       </c>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="n">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="20">
         <v>5</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="28" t="s">
         <v>165</v>
       </c>
       <c r="E43" s="25" t="s">
@@ -5560,15 +5903,15 @@
       </c>
       <c r="G43" s="20"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="n">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="20">
         <v>5</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="28" t="s">
         <v>167</v>
       </c>
       <c r="E44" s="25" t="s">
@@ -5579,15 +5922,15 @@
       </c>
       <c r="G44" s="20"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="n">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="20">
         <v>5</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="28" t="s">
         <v>169</v>
       </c>
       <c r="E45" s="25" t="s">
@@ -5598,15 +5941,15 @@
       </c>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20" t="n">
+    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="20">
         <v>5</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="28" t="s">
         <v>171</v>
       </c>
       <c r="E46" s="25" t="s">
@@ -5617,15 +5960,15 @@
       </c>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="n">
+    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="20">
         <v>5</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="28" t="s">
         <v>173</v>
       </c>
       <c r="E47" s="25" t="s">
@@ -5636,15 +5979,15 @@
       </c>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="n">
+    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="20">
         <v>5</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="28" t="s">
         <v>175</v>
       </c>
       <c r="E48" s="25" t="s">
@@ -5655,15 +5998,15 @@
       </c>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="n">
+    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="20">
         <v>5</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="28" t="s">
         <v>177</v>
       </c>
       <c r="E49" s="25" t="s">
@@ -5674,15 +6017,15 @@
       </c>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20" t="n">
+    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="20">
         <v>5</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="28" t="s">
         <v>179</v>
       </c>
       <c r="E50" s="25" t="s">
@@ -5693,15 +6036,15 @@
       </c>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="n">
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="20">
         <v>5</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="28" t="s">
         <v>182</v>
       </c>
       <c r="E51" s="25" t="s">
@@ -5712,15 +6055,15 @@
       </c>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="n">
+    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="20">
         <v>5</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="28" t="s">
         <v>184</v>
       </c>
       <c r="E52" s="25" t="s">
@@ -5731,15 +6074,15 @@
       </c>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20" t="n">
+    <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="20">
         <v>5</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="28" t="s">
         <v>186</v>
       </c>
       <c r="E53" s="25" t="s">
@@ -5750,15 +6093,15 @@
       </c>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20" t="n">
+    <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="20">
         <v>5</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="28" t="s">
         <v>188</v>
       </c>
       <c r="E54" s="25" t="s">
@@ -5769,15 +6112,15 @@
       </c>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20" t="n">
+    <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="20">
         <v>5</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="28" t="s">
         <v>190</v>
       </c>
       <c r="E55" s="25" t="s">
@@ -5788,15 +6131,15 @@
       </c>
       <c r="G55" s="20"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="20" t="n">
+    <row r="56" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="20">
         <v>5</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="28" t="s">
         <v>192</v>
       </c>
       <c r="E56" s="25" t="s">
@@ -5807,15 +6150,15 @@
       </c>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20" t="n">
+    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="20">
         <v>5</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="28" t="s">
         <v>194</v>
       </c>
       <c r="E57" s="25" t="s">
@@ -5826,15 +6169,15 @@
       </c>
       <c r="G57" s="20"/>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20" t="n">
+    <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="20">
         <v>5</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E58" s="25" t="s">
@@ -5845,15 +6188,15 @@
       </c>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="n">
+    <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="20">
         <v>5</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="28" t="s">
         <v>198</v>
       </c>
       <c r="E59" s="25" t="s">
@@ -5864,15 +6207,15 @@
       </c>
       <c r="G59" s="20"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20" t="n">
+    <row r="60" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="20">
         <v>5</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="28" t="s">
         <v>200</v>
       </c>
       <c r="E60" s="25" t="s">
@@ -5883,15 +6226,15 @@
       </c>
       <c r="G60" s="20"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20" t="n">
+    <row r="61" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="20">
         <v>5</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="28" t="s">
         <v>202</v>
       </c>
       <c r="E61" s="25" t="s">
@@ -5902,15 +6245,15 @@
       </c>
       <c r="G61" s="20"/>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20" t="n">
+    <row r="62" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="20">
         <v>5</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="28" t="s">
         <v>204</v>
       </c>
       <c r="E62" s="25" t="s">
@@ -5921,15 +6264,15 @@
       </c>
       <c r="G62" s="20"/>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20" t="n">
+    <row r="63" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="20">
         <v>5</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="28" t="s">
         <v>206</v>
       </c>
       <c r="E63" s="25" t="s">
@@ -5940,15 +6283,15 @@
       </c>
       <c r="G63" s="20"/>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20" t="n">
+    <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="20">
         <v>5</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="28" t="s">
         <v>208</v>
       </c>
       <c r="E64" s="25" t="s">
@@ -5959,15 +6302,15 @@
       </c>
       <c r="G64" s="20"/>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20" t="n">
+    <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="20">
         <v>6</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="28" t="s">
         <v>210</v>
       </c>
       <c r="E65" s="20" t="s">
@@ -5978,15 +6321,15 @@
       </c>
       <c r="G65" s="20"/>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20" t="n">
+    <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="20">
         <v>6</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="28" t="s">
         <v>213</v>
       </c>
       <c r="E66" s="20" t="s">
@@ -5997,15 +6340,15 @@
       </c>
       <c r="G66" s="20"/>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20" t="n">
+    <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="20">
         <v>6</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="28" t="s">
         <v>215</v>
       </c>
       <c r="E67" s="20" t="s">
@@ -6016,15 +6359,15 @@
       </c>
       <c r="G67" s="20"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20" t="n">
+    <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="20">
         <v>6</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="D68" s="28" t="s">
         <v>217</v>
       </c>
       <c r="E68" s="20" t="s">
@@ -6035,15 +6378,15 @@
       </c>
       <c r="G68" s="20"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20" t="n">
+    <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="20">
         <v>6</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="D69" s="40" t="s">
+      <c r="D69" s="28" t="s">
         <v>219</v>
       </c>
       <c r="E69" s="20" t="s">
@@ -6060,8 +6403,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="20" t="n">
+    <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="20">
         <v>6</v>
       </c>
       <c r="B70" s="20" t="s">
@@ -6070,7 +6413,7 @@
       <c r="C70" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D70" s="40" t="s">
+      <c r="D70" s="28" t="s">
         <v>223</v>
       </c>
       <c r="E70" s="20" t="s">
@@ -6087,15 +6430,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="20" t="n">
+    <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="20">
         <v>6</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D71" s="40" t="s">
+      <c r="D71" s="28" t="s">
         <v>227</v>
       </c>
       <c r="E71" s="20" t="s">
@@ -6111,15 +6454,15 @@
       </c>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="20" t="n">
+    <row r="72" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="20">
         <v>6</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D72" s="40" t="s">
+      <c r="D72" s="28" t="s">
         <v>228</v>
       </c>
       <c r="E72" s="20" t="s">
@@ -6135,15 +6478,15 @@
       </c>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="20" t="n">
+    <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="20">
         <v>6</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="D73" s="40" t="s">
+      <c r="D73" s="28" t="s">
         <v>230</v>
       </c>
       <c r="E73" s="20" t="s">
@@ -6159,19 +6502,461 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>#REF!=same</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H70" r:id="rId1" display="https://www.academia.edu/1112558/Comparative_study_on_the_collection_of_data_to_measure_the_extent_and_impact_of_discrimination_within_the_United_States_Canada_Australia_the_United_Kingdom_and_the_Netherlands"/>
+    <hyperlink ref="H70" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="15"/>
+      <c r="H9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="15"/>
+      <c r="H10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="17"/>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="25"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="19"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="25"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$I37=same</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>